--- a/BackTest/2020-01-11 BackTest WOM.xlsx
+++ b/BackTest/2020-01-11 BackTest WOM.xlsx
@@ -2131,20 +2131,14 @@
         <v>54.71416666666669</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>53.17</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,20 +2166,14 @@
         <v>54.70566666666669</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>53.15</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2213,20 +2201,14 @@
         <v>54.67083333333336</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2300,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2410,20 +2376,14 @@
         <v>54.6216666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>54.09</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2451,20 +2411,14 @@
         <v>54.57333333333337</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2492,20 +2446,14 @@
         <v>54.5251666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>53.01</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2533,20 +2481,14 @@
         <v>54.50183333333337</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2574,20 +2516,14 @@
         <v>54.46500000000003</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>53.69</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2615,20 +2551,14 @@
         <v>54.45150000000003</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>53.69</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2656,20 +2586,14 @@
         <v>54.45750000000003</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>53.83</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2697,20 +2621,14 @@
         <v>54.4071666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2738,20 +2656,14 @@
         <v>54.39383333333337</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>53.11</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2779,20 +2691,14 @@
         <v>54.34733333333337</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2737,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2861,14 +2767,12 @@
         <v>54.2561666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2943,14 +2847,12 @@
         <v>54.20750000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>53.01</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3025,14 +2927,12 @@
         <v>54.14433333333337</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>53</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3066,14 +2966,12 @@
         <v>54.14100000000003</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>53.59</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3154,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>53.12</v>
+        <v>53.6</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
@@ -3189,14 +3087,12 @@
         <v>54.11700000000003</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>53.78</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3271,14 +3167,12 @@
         <v>54.0116666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>53.78</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3312,14 +3206,12 @@
         <v>54.00466666666671</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>53.78</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3353,14 +3245,12 @@
         <v>53.98816666666671</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>53.51</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3394,14 +3284,12 @@
         <v>53.97383333333337</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>53.21</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3435,14 +3323,12 @@
         <v>53.84633333333338</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3476,14 +3362,12 @@
         <v>53.82466666666672</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3517,14 +3401,12 @@
         <v>53.80133333333337</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>53.11</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3558,14 +3440,12 @@
         <v>53.77816666666671</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3599,14 +3479,12 @@
         <v>53.71350000000005</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>53.01</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3640,14 +3518,12 @@
         <v>53.70183333333339</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>53.01</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3681,14 +3557,12 @@
         <v>53.66933333333339</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>53.58</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3722,14 +3596,12 @@
         <v>53.61766666666673</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>53.59</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3763,14 +3635,12 @@
         <v>53.5958333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>53.79</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3804,14 +3674,12 @@
         <v>53.57550000000005</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>53.79</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3845,14 +3713,12 @@
         <v>53.5273333333334</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>53.79</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3886,14 +3752,12 @@
         <v>53.53066666666673</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>53.85</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3927,14 +3791,12 @@
         <v>53.53266666666672</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>53.85</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3968,14 +3830,12 @@
         <v>53.53250000000005</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>53.86</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4009,14 +3869,12 @@
         <v>53.50416666666672</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>54</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4050,14 +3908,12 @@
         <v>53.50866666666672</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>54.43</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4091,14 +3947,12 @@
         <v>53.51550000000005</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>54.45</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4132,14 +3986,12 @@
         <v>53.52183333333338</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>54.48</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -5697,16 +5549,18 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5734,11 +5588,15 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5769,11 +5627,15 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5808,7 +5670,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5843,7 +5709,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5878,7 +5748,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5913,7 +5787,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5944,11 +5822,15 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5983,7 +5865,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6014,11 +5900,15 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +5939,15 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6088,7 +5982,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6123,7 +6021,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6158,7 +6060,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6193,7 +6099,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6228,7 +6138,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6177,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6298,7 +6216,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6333,7 +6255,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6368,7 +6294,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6403,7 +6333,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6438,7 +6372,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6473,7 +6411,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6508,7 +6450,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +6489,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6578,7 +6528,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6613,7 +6567,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6648,7 +6606,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6683,7 +6645,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6718,7 +6684,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +6723,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6788,7 +6762,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6823,7 +6801,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6858,7 +6840,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6893,7 +6879,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6928,7 +6918,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6963,7 +6957,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6998,7 +6996,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7033,7 +7035,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7068,7 +7074,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7103,7 +7113,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7138,7 +7152,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7173,7 +7191,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7208,7 +7230,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7243,7 +7269,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7278,7 +7308,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7313,7 +7347,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7348,7 +7386,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7383,7 +7425,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7464,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7453,7 +7503,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7488,7 +7542,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7523,7 +7581,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7558,7 +7620,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7593,7 +7659,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7628,7 +7698,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7663,7 +7737,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7698,7 +7776,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7733,7 +7815,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7768,7 +7854,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7803,7 +7893,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7838,7 +7932,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7873,7 +7971,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +8010,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7943,7 +8049,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7978,7 +8088,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8013,7 +8127,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8048,7 +8166,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8083,7 +8205,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8118,7 +8244,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8153,7 +8283,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8188,7 +8322,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8223,7 +8361,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8258,7 +8400,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8293,7 +8439,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8328,7 +8478,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8363,7 +8517,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8391,18 +8549,16 @@
         <v>54.3771666666667</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>53.46</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -8432,14 +8588,12 @@
         <v>54.32933333333337</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>53.12</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8473,14 +8627,12 @@
         <v>54.31750000000003</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8514,14 +8666,12 @@
         <v>54.2876666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>53.12</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8555,14 +8705,12 @@
         <v>54.25783333333337</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8596,14 +8744,12 @@
         <v>54.24150000000004</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>53.79</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8637,14 +8783,12 @@
         <v>54.22766666666669</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8678,14 +8822,12 @@
         <v>54.21166666666669</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>53.95</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8719,14 +8861,12 @@
         <v>54.18233333333337</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>54.19</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8760,14 +8900,12 @@
         <v>54.1701666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>54.18</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8801,14 +8939,12 @@
         <v>54.18850000000003</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>54.19</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8842,14 +8978,12 @@
         <v>54.23983333333336</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>56.01</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -9042,18 +9176,16 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9085,12 +9217,10 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">

--- a/BackTest/2020-01-11 BackTest WOM.xlsx
+++ b/BackTest/2020-01-11 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="C2" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="D2" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="E2" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="F2" t="n">
-        <v>61.3881</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>55.7341666666667</v>
+        <v>55.83800000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="C3" t="n">
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="D3" t="n">
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4</v>
+        <v>54.5</v>
       </c>
       <c r="F3" t="n">
-        <v>39596.1381</v>
+        <v>61.3881</v>
       </c>
       <c r="G3" t="n">
-        <v>55.6556666666667</v>
+        <v>55.7341666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55.9</v>
+        <v>53.5</v>
       </c>
       <c r="C4" t="n">
-        <v>56.05</v>
+        <v>53.5</v>
       </c>
       <c r="D4" t="n">
-        <v>56.05</v>
+        <v>53.5</v>
       </c>
       <c r="E4" t="n">
-        <v>55.9</v>
+        <v>53.4</v>
       </c>
       <c r="F4" t="n">
-        <v>5353.093487957181</v>
+        <v>39596.1381</v>
       </c>
       <c r="G4" t="n">
-        <v>55.6181666666667</v>
+        <v>55.6556666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.8</v>
+        <v>55.9</v>
       </c>
       <c r="C5" t="n">
-        <v>53.8</v>
+        <v>56.05</v>
       </c>
       <c r="D5" t="n">
-        <v>53.8</v>
+        <v>56.05</v>
       </c>
       <c r="E5" t="n">
-        <v>53.8</v>
+        <v>55.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3776.6042</v>
+        <v>5353.093487957181</v>
       </c>
       <c r="G5" t="n">
-        <v>55.5446666666667</v>
+        <v>55.6181666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55.89</v>
+        <v>53.8</v>
       </c>
       <c r="C6" t="n">
-        <v>55.89</v>
+        <v>53.8</v>
       </c>
       <c r="D6" t="n">
-        <v>55.89</v>
+        <v>53.8</v>
       </c>
       <c r="E6" t="n">
-        <v>55.89</v>
+        <v>53.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>3776.6042</v>
       </c>
       <c r="G6" t="n">
-        <v>55.5061666666667</v>
+        <v>55.5446666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53.91</v>
+        <v>55.89</v>
       </c>
       <c r="C7" t="n">
         <v>55.89</v>
@@ -617,13 +617,13 @@
         <v>55.89</v>
       </c>
       <c r="E7" t="n">
-        <v>53.91</v>
+        <v>55.89</v>
       </c>
       <c r="F7" t="n">
-        <v>2082</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>55.46750000000004</v>
+        <v>55.5061666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55.87</v>
+        <v>53.91</v>
       </c>
       <c r="C8" t="n">
-        <v>55.87</v>
+        <v>55.89</v>
       </c>
       <c r="D8" t="n">
-        <v>55.87</v>
+        <v>55.89</v>
       </c>
       <c r="E8" t="n">
-        <v>55.87</v>
+        <v>53.91</v>
       </c>
       <c r="F8" t="n">
-        <v>3579.738679076428</v>
+        <v>2082</v>
       </c>
       <c r="G8" t="n">
-        <v>55.38700000000004</v>
+        <v>55.46750000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53.8</v>
+        <v>55.87</v>
       </c>
       <c r="C9" t="n">
-        <v>53.63</v>
+        <v>55.87</v>
       </c>
       <c r="D9" t="n">
-        <v>53.8</v>
+        <v>55.87</v>
       </c>
       <c r="E9" t="n">
-        <v>53.63</v>
+        <v>55.87</v>
       </c>
       <c r="F9" t="n">
-        <v>9398.847299999999</v>
+        <v>3579.738679076428</v>
       </c>
       <c r="G9" t="n">
-        <v>55.26916666666671</v>
+        <v>55.38700000000004</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>55.4</v>
+        <v>53.8</v>
       </c>
       <c r="C10" t="n">
-        <v>55.4</v>
+        <v>53.63</v>
       </c>
       <c r="D10" t="n">
-        <v>55.4</v>
+        <v>53.8</v>
       </c>
       <c r="E10" t="n">
-        <v>55.4</v>
+        <v>53.63</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>9398.847299999999</v>
       </c>
       <c r="G10" t="n">
-        <v>55.17933333333337</v>
+        <v>55.26916666666671</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="C11" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="E11" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="F11" t="n">
-        <v>8433.076999999999</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>55.12100000000004</v>
+        <v>55.17933333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>54.89</v>
+        <v>54.7</v>
       </c>
       <c r="C12" t="n">
-        <v>54.89</v>
+        <v>54.9</v>
       </c>
       <c r="D12" t="n">
-        <v>54.89</v>
+        <v>54.9</v>
       </c>
       <c r="E12" t="n">
-        <v>54.89</v>
+        <v>54.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1561.4594</v>
+        <v>8433.076999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>55.05266666666671</v>
+        <v>55.12100000000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>53.8</v>
+        <v>54.89</v>
       </c>
       <c r="C13" t="n">
-        <v>53.8</v>
+        <v>54.89</v>
       </c>
       <c r="D13" t="n">
-        <v>53.8</v>
+        <v>54.89</v>
       </c>
       <c r="E13" t="n">
-        <v>53.8</v>
+        <v>54.89</v>
       </c>
       <c r="F13" t="n">
-        <v>46.5737</v>
+        <v>1561.4594</v>
       </c>
       <c r="G13" t="n">
-        <v>54.96616666666672</v>
+        <v>55.05266666666671</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>54.99</v>
+        <v>53.8</v>
       </c>
       <c r="C14" t="n">
-        <v>54.11</v>
+        <v>53.8</v>
       </c>
       <c r="D14" t="n">
-        <v>57.05</v>
+        <v>53.8</v>
       </c>
       <c r="E14" t="n">
-        <v>53.81</v>
+        <v>53.8</v>
       </c>
       <c r="F14" t="n">
-        <v>9233.83172231631</v>
+        <v>46.5737</v>
       </c>
       <c r="G14" t="n">
-        <v>54.89450000000006</v>
+        <v>54.96616666666672</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57.05</v>
+        <v>54.99</v>
       </c>
       <c r="C15" t="n">
-        <v>53.91</v>
+        <v>54.11</v>
       </c>
       <c r="D15" t="n">
         <v>57.05</v>
       </c>
       <c r="E15" t="n">
-        <v>53.91</v>
+        <v>53.81</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7683</v>
+        <v>9233.83172231631</v>
       </c>
       <c r="G15" t="n">
-        <v>54.81950000000005</v>
+        <v>54.89450000000006</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>57.05</v>
+      </c>
+      <c r="C16" t="n">
         <v>53.91</v>
       </c>
-      <c r="C16" t="n">
-        <v>53.92</v>
-      </c>
       <c r="D16" t="n">
-        <v>53.92</v>
+        <v>57.05</v>
       </c>
       <c r="E16" t="n">
         <v>53.91</v>
       </c>
       <c r="F16" t="n">
-        <v>1367.8576</v>
+        <v>333.7683</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74800000000005</v>
+        <v>54.81950000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>56.98</v>
+        <v>53.91</v>
       </c>
       <c r="C17" t="n">
-        <v>56.98</v>
+        <v>53.92</v>
       </c>
       <c r="D17" t="n">
-        <v>56.98</v>
+        <v>53.92</v>
       </c>
       <c r="E17" t="n">
-        <v>56.98</v>
+        <v>53.91</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>1367.8576</v>
       </c>
       <c r="G17" t="n">
-        <v>54.72750000000006</v>
+        <v>54.74800000000005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>54.1</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="n">
-        <v>56.9</v>
+        <v>56.98</v>
       </c>
       <c r="D18" t="n">
-        <v>56.9</v>
+        <v>56.98</v>
       </c>
       <c r="E18" t="n">
-        <v>53.91</v>
+        <v>56.98</v>
       </c>
       <c r="F18" t="n">
-        <v>9430.627399999999</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>54.70750000000006</v>
+        <v>54.72750000000006</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>56.8</v>
+        <v>54.1</v>
       </c>
       <c r="C19" t="n">
-        <v>54.2</v>
+        <v>56.9</v>
       </c>
       <c r="D19" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="E19" t="n">
-        <v>54.2</v>
+        <v>53.91</v>
       </c>
       <c r="F19" t="n">
-        <v>9400.224899999999</v>
+        <v>9430.627399999999</v>
       </c>
       <c r="G19" t="n">
-        <v>54.65650000000005</v>
+        <v>54.70750000000006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>54.2</v>
+        <v>56.8</v>
       </c>
       <c r="C20" t="n">
         <v>54.2</v>
       </c>
       <c r="D20" t="n">
-        <v>54.2</v>
+        <v>56.8</v>
       </c>
       <c r="E20" t="n">
         <v>54.2</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>9400.224899999999</v>
       </c>
       <c r="G20" t="n">
-        <v>54.60550000000004</v>
+        <v>54.65650000000005</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>54.2</v>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>54.2</v>
       </c>
       <c r="D21" t="n">
         <v>54.2</v>
       </c>
       <c r="E21" t="n">
-        <v>54</v>
+        <v>54.2</v>
       </c>
       <c r="F21" t="n">
-        <v>511.31</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>54.55116666666671</v>
+        <v>54.60550000000004</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>54.2</v>
       </c>
       <c r="C22" t="n">
-        <v>60.95</v>
+        <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>60.95</v>
+        <v>54.2</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
-        <v>50881.07728730106</v>
+        <v>511.31</v>
       </c>
       <c r="G22" t="n">
-        <v>54.6126666666667</v>
+        <v>54.55116666666671</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
-        <v>54.5</v>
+        <v>60.95</v>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>60.95</v>
       </c>
       <c r="E23" t="n">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>189.12</v>
+        <v>50881.07728730106</v>
       </c>
       <c r="G23" t="n">
-        <v>54.5666666666667</v>
+        <v>54.6126666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="n">
         <v>54.5</v>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
         <v>54.5</v>
       </c>
       <c r="F24" t="n">
-        <v>360.3896</v>
+        <v>189.12</v>
       </c>
       <c r="G24" t="n">
-        <v>54.52083333333336</v>
+        <v>54.5666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>55</v>
       </c>
       <c r="C25" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="D25" t="n">
         <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1752.4269</v>
+        <v>360.3896</v>
       </c>
       <c r="G25" t="n">
-        <v>54.47750000000003</v>
+        <v>54.52083333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.89</v>
+        <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>56.89</v>
+        <v>54.4</v>
       </c>
       <c r="D26" t="n">
-        <v>56.89</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>56.89</v>
+        <v>54.4</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>1752.4269</v>
       </c>
       <c r="G26" t="n">
-        <v>54.48883333333336</v>
+        <v>54.47750000000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54.52</v>
+        <v>56.89</v>
       </c>
       <c r="C27" t="n">
-        <v>53.71</v>
+        <v>56.89</v>
       </c>
       <c r="D27" t="n">
-        <v>54.52</v>
+        <v>56.89</v>
       </c>
       <c r="E27" t="n">
-        <v>53.71</v>
+        <v>56.89</v>
       </c>
       <c r="F27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>54.44533333333336</v>
+        <v>54.48883333333336</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55</v>
+        <v>54.52</v>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>53.71</v>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>54.52</v>
       </c>
       <c r="E28" t="n">
-        <v>55</v>
+        <v>53.71</v>
       </c>
       <c r="F28" t="n">
-        <v>3369.6021</v>
+        <v>110</v>
       </c>
       <c r="G28" t="n">
-        <v>54.42333333333336</v>
+        <v>54.44533333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>56.69</v>
+        <v>55</v>
       </c>
       <c r="C29" t="n">
-        <v>56.69</v>
+        <v>55</v>
       </c>
       <c r="D29" t="n">
-        <v>56.69</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>56.69</v>
+        <v>55</v>
       </c>
       <c r="F29" t="n">
-        <v>150.7981</v>
+        <v>3369.6021</v>
       </c>
       <c r="G29" t="n">
-        <v>54.42950000000003</v>
+        <v>54.42333333333336</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>55.1</v>
+        <v>56.69</v>
       </c>
       <c r="C30" t="n">
-        <v>55.1</v>
+        <v>56.69</v>
       </c>
       <c r="D30" t="n">
-        <v>55.1</v>
+        <v>56.69</v>
       </c>
       <c r="E30" t="n">
-        <v>55.1</v>
+        <v>56.69</v>
       </c>
       <c r="F30" t="n">
-        <v>3500</v>
+        <v>150.7981</v>
       </c>
       <c r="G30" t="n">
-        <v>54.49783333333335</v>
+        <v>54.42950000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>55.1</v>
       </c>
       <c r="C31" t="n">
-        <v>55.01</v>
+        <v>55.1</v>
       </c>
       <c r="D31" t="n">
         <v>55.1</v>
       </c>
       <c r="E31" t="n">
-        <v>55.01</v>
+        <v>55.1</v>
       </c>
       <c r="F31" t="n">
-        <v>15090.1168</v>
+        <v>3500</v>
       </c>
       <c r="G31" t="n">
-        <v>54.56400000000003</v>
+        <v>54.49783333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>56.69</v>
+        <v>55.1</v>
       </c>
       <c r="C32" t="n">
-        <v>56.69</v>
+        <v>55.01</v>
       </c>
       <c r="D32" t="n">
-        <v>56.69</v>
+        <v>55.1</v>
       </c>
       <c r="E32" t="n">
-        <v>56.69</v>
+        <v>55.01</v>
       </c>
       <c r="F32" t="n">
-        <v>617.7512</v>
+        <v>15090.1168</v>
       </c>
       <c r="G32" t="n">
-        <v>54.65616666666669</v>
+        <v>54.56400000000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.1</v>
+        <v>56.69</v>
       </c>
       <c r="C33" t="n">
-        <v>53.65</v>
+        <v>56.69</v>
       </c>
       <c r="D33" t="n">
-        <v>55.1</v>
+        <v>56.69</v>
       </c>
       <c r="E33" t="n">
-        <v>53.65</v>
+        <v>56.69</v>
       </c>
       <c r="F33" t="n">
-        <v>91882.6976</v>
+        <v>617.7512</v>
       </c>
       <c r="G33" t="n">
-        <v>54.6916666666667</v>
+        <v>54.65616666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53.73</v>
+        <v>55.1</v>
       </c>
       <c r="C34" t="n">
-        <v>53.73</v>
+        <v>53.65</v>
       </c>
       <c r="D34" t="n">
-        <v>53.73</v>
+        <v>55.1</v>
       </c>
       <c r="E34" t="n">
-        <v>53.73</v>
+        <v>53.65</v>
       </c>
       <c r="F34" t="n">
-        <v>1055.6621</v>
+        <v>91882.6976</v>
       </c>
       <c r="G34" t="n">
-        <v>54.6796666666667</v>
+        <v>54.6916666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54.01</v>
+        <v>53.73</v>
       </c>
       <c r="C35" t="n">
-        <v>54.01</v>
+        <v>53.73</v>
       </c>
       <c r="D35" t="n">
-        <v>54.01</v>
+        <v>53.73</v>
       </c>
       <c r="E35" t="n">
-        <v>54.01</v>
+        <v>53.73</v>
       </c>
       <c r="F35" t="n">
-        <v>5291.6374</v>
+        <v>1055.6621</v>
       </c>
       <c r="G35" t="n">
-        <v>54.63500000000003</v>
+        <v>54.6796666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>55.7</v>
+        <v>54.01</v>
       </c>
       <c r="C36" t="n">
-        <v>55.7</v>
+        <v>54.01</v>
       </c>
       <c r="D36" t="n">
-        <v>55.7</v>
+        <v>54.01</v>
       </c>
       <c r="E36" t="n">
-        <v>55.7</v>
+        <v>54.01</v>
       </c>
       <c r="F36" t="n">
-        <v>139.5334</v>
+        <v>5291.6374</v>
       </c>
       <c r="G36" t="n">
-        <v>54.6616666666667</v>
+        <v>54.63500000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>54.16</v>
+        <v>55.7</v>
       </c>
       <c r="C37" t="n">
-        <v>54.16</v>
+        <v>55.7</v>
       </c>
       <c r="D37" t="n">
-        <v>54.16</v>
+        <v>55.7</v>
       </c>
       <c r="E37" t="n">
-        <v>54.16</v>
+        <v>55.7</v>
       </c>
       <c r="F37" t="n">
-        <v>1055.6621</v>
+        <v>139.5334</v>
       </c>
       <c r="G37" t="n">
-        <v>54.6916666666667</v>
+        <v>54.6616666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>54.16</v>
       </c>
       <c r="C38" t="n">
-        <v>54.04</v>
+        <v>54.16</v>
       </c>
       <c r="D38" t="n">
         <v>54.16</v>
       </c>
       <c r="E38" t="n">
-        <v>54.04</v>
+        <v>54.16</v>
       </c>
       <c r="F38" t="n">
-        <v>22067</v>
+        <v>1055.6621</v>
       </c>
       <c r="G38" t="n">
-        <v>54.71983333333336</v>
+        <v>54.6916666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>54.1</v>
+        <v>54.16</v>
       </c>
       <c r="C39" t="n">
-        <v>54.1</v>
+        <v>54.04</v>
       </c>
       <c r="D39" t="n">
-        <v>54.1</v>
+        <v>54.16</v>
       </c>
       <c r="E39" t="n">
-        <v>54.1</v>
+        <v>54.04</v>
       </c>
       <c r="F39" t="n">
-        <v>218</v>
+        <v>22067</v>
       </c>
       <c r="G39" t="n">
-        <v>54.67416666666669</v>
+        <v>54.71983333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>54.1</v>
       </c>
       <c r="C40" t="n">
-        <v>54.39</v>
+        <v>54.1</v>
       </c>
       <c r="D40" t="n">
-        <v>54.39</v>
+        <v>54.1</v>
       </c>
       <c r="E40" t="n">
         <v>54.1</v>
       </c>
       <c r="F40" t="n">
-        <v>13935.1336</v>
+        <v>218</v>
       </c>
       <c r="G40" t="n">
-        <v>54.69900000000003</v>
+        <v>54.67416666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>54.5</v>
+        <v>54.1</v>
       </c>
       <c r="C41" t="n">
-        <v>54.5</v>
+        <v>54.39</v>
       </c>
       <c r="D41" t="n">
-        <v>54.5</v>
+        <v>54.39</v>
       </c>
       <c r="E41" t="n">
-        <v>54.5</v>
+        <v>54.1</v>
       </c>
       <c r="F41" t="n">
-        <v>633.3243</v>
+        <v>13935.1336</v>
       </c>
       <c r="G41" t="n">
-        <v>54.72566666666669</v>
+        <v>54.69900000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55.58</v>
+        <v>54.5</v>
       </c>
       <c r="C42" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="D42" t="n">
-        <v>55.58</v>
+        <v>54.5</v>
       </c>
       <c r="E42" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="F42" t="n">
-        <v>6299.504</v>
+        <v>633.3243</v>
       </c>
       <c r="G42" t="n">
-        <v>54.74566666666669</v>
+        <v>54.72566666666669</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="C43" t="n">
         <v>54.1</v>
       </c>
-      <c r="C43" t="n">
-        <v>54.01</v>
-      </c>
       <c r="D43" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="E43" t="n">
         <v>54.1</v>
       </c>
-      <c r="E43" t="n">
-        <v>54.01</v>
-      </c>
       <c r="F43" t="n">
-        <v>15645.1894</v>
+        <v>6299.504</v>
       </c>
       <c r="G43" t="n">
-        <v>54.71916666666669</v>
+        <v>54.74566666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.74</v>
+        <v>54.1</v>
       </c>
       <c r="C44" t="n">
-        <v>53.74</v>
+        <v>54.01</v>
       </c>
       <c r="D44" t="n">
-        <v>53.74</v>
+        <v>54.1</v>
       </c>
       <c r="E44" t="n">
-        <v>53.74</v>
+        <v>54.01</v>
       </c>
       <c r="F44" t="n">
-        <v>10045.05</v>
+        <v>15645.1894</v>
       </c>
       <c r="G44" t="n">
-        <v>54.72316666666669</v>
+        <v>54.71916666666669</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>53.81</v>
+        <v>53.74</v>
       </c>
       <c r="C45" t="n">
         <v>53.74</v>
       </c>
       <c r="D45" t="n">
-        <v>53.81</v>
+        <v>53.74</v>
       </c>
       <c r="E45" t="n">
         <v>53.74</v>
       </c>
       <c r="F45" t="n">
-        <v>30000</v>
+        <v>10045.05</v>
       </c>
       <c r="G45" t="n">
-        <v>54.72883333333335</v>
+        <v>54.72316666666669</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>53.81</v>
       </c>
       <c r="C46" t="n">
-        <v>53.3</v>
+        <v>53.74</v>
       </c>
       <c r="D46" t="n">
         <v>53.81</v>
       </c>
       <c r="E46" t="n">
-        <v>53.3</v>
+        <v>53.74</v>
       </c>
       <c r="F46" t="n">
-        <v>70018.802</v>
+        <v>30000</v>
       </c>
       <c r="G46" t="n">
-        <v>54.73216666666669</v>
+        <v>54.72883333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>53.33</v>
+        <v>53.81</v>
       </c>
       <c r="C47" t="n">
         <v>53.3</v>
       </c>
       <c r="D47" t="n">
-        <v>53.33</v>
+        <v>53.81</v>
       </c>
       <c r="E47" t="n">
         <v>53.3</v>
       </c>
       <c r="F47" t="n">
-        <v>65329.8052</v>
+        <v>70018.802</v>
       </c>
       <c r="G47" t="n">
-        <v>54.73716666666669</v>
+        <v>54.73216666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.31</v>
+        <v>53.33</v>
       </c>
       <c r="C48" t="n">
-        <v>53.17</v>
+        <v>53.3</v>
       </c>
       <c r="D48" t="n">
-        <v>53.31</v>
+        <v>53.33</v>
       </c>
       <c r="E48" t="n">
-        <v>53.17</v>
+        <v>53.3</v>
       </c>
       <c r="F48" t="n">
-        <v>6199.5779</v>
+        <v>65329.8052</v>
       </c>
       <c r="G48" t="n">
-        <v>54.73983333333335</v>
+        <v>54.73716666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.3</v>
+        <v>53.31</v>
       </c>
       <c r="C49" t="n">
-        <v>53.3</v>
+        <v>53.17</v>
       </c>
       <c r="D49" t="n">
-        <v>53.3</v>
+        <v>53.31</v>
       </c>
       <c r="E49" t="n">
-        <v>53.3</v>
+        <v>53.17</v>
       </c>
       <c r="F49" t="n">
-        <v>696</v>
+        <v>6199.5779</v>
       </c>
       <c r="G49" t="n">
-        <v>54.74316666666669</v>
+        <v>54.73983333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.17</v>
+        <v>53.3</v>
       </c>
       <c r="C50" t="n">
-        <v>53.15</v>
+        <v>53.3</v>
       </c>
       <c r="D50" t="n">
-        <v>53.17</v>
+        <v>53.3</v>
       </c>
       <c r="E50" t="n">
-        <v>53.15</v>
+        <v>53.3</v>
       </c>
       <c r="F50" t="n">
-        <v>5445.4101</v>
+        <v>696</v>
       </c>
       <c r="G50" t="n">
-        <v>54.71416666666669</v>
+        <v>54.74316666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>53.17</v>
+      </c>
+      <c r="C51" t="n">
         <v>53.15</v>
       </c>
-      <c r="C51" t="n">
-        <v>52.64</v>
-      </c>
       <c r="D51" t="n">
+        <v>53.17</v>
+      </c>
+      <c r="E51" t="n">
         <v>53.15</v>
       </c>
-      <c r="E51" t="n">
-        <v>52.64</v>
-      </c>
       <c r="F51" t="n">
-        <v>155089.4826</v>
+        <v>5445.4101</v>
       </c>
       <c r="G51" t="n">
-        <v>54.70566666666669</v>
+        <v>54.71416666666669</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.3</v>
+        <v>53.15</v>
       </c>
       <c r="C52" t="n">
-        <v>54.3</v>
+        <v>52.64</v>
       </c>
       <c r="D52" t="n">
-        <v>54.3</v>
+        <v>53.15</v>
       </c>
       <c r="E52" t="n">
-        <v>53.3</v>
+        <v>52.64</v>
       </c>
       <c r="F52" t="n">
-        <v>7103.964862430939</v>
+        <v>155089.4826</v>
       </c>
       <c r="G52" t="n">
-        <v>54.67083333333336</v>
+        <v>54.70566666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>54.1</v>
+        <v>53.3</v>
       </c>
       <c r="C53" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="D53" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="E53" t="n">
-        <v>54.1</v>
+        <v>53.3</v>
       </c>
       <c r="F53" t="n">
-        <v>817</v>
+        <v>7103.964862430939</v>
       </c>
       <c r="G53" t="n">
-        <v>54.6861666666667</v>
+        <v>54.67083333333336</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C54" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D54" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F54" t="n">
-        <v>276</v>
+        <v>817</v>
       </c>
       <c r="G54" t="n">
-        <v>54.70000000000003</v>
+        <v>54.6861666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.05</v>
+        <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>53.05</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>53.05</v>
+        <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>53.05</v>
+        <v>54</v>
       </c>
       <c r="F55" t="n">
-        <v>11464.379</v>
+        <v>276</v>
       </c>
       <c r="G55" t="n">
-        <v>54.69233333333337</v>
+        <v>54.70000000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>53.05</v>
       </c>
       <c r="F56" t="n">
-        <v>1393.5058</v>
+        <v>11464.379</v>
       </c>
       <c r="G56" t="n">
-        <v>54.64833333333336</v>
+        <v>54.69233333333337</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54.09</v>
+        <v>53.05</v>
       </c>
       <c r="C57" t="n">
-        <v>54.09</v>
+        <v>53.05</v>
       </c>
       <c r="D57" t="n">
-        <v>54.09</v>
+        <v>53.05</v>
       </c>
       <c r="E57" t="n">
-        <v>54.09</v>
+        <v>53.05</v>
       </c>
       <c r="F57" t="n">
-        <v>1689.9725</v>
+        <v>1393.5058</v>
       </c>
       <c r="G57" t="n">
-        <v>54.6216666666667</v>
+        <v>54.64833333333336</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>53.1</v>
+        <v>54.09</v>
       </c>
       <c r="C58" t="n">
-        <v>53</v>
+        <v>54.09</v>
       </c>
       <c r="D58" t="n">
-        <v>53.1</v>
+        <v>54.09</v>
       </c>
       <c r="E58" t="n">
-        <v>53</v>
+        <v>54.09</v>
       </c>
       <c r="F58" t="n">
-        <v>40862.2969</v>
+        <v>1689.9725</v>
       </c>
       <c r="G58" t="n">
-        <v>54.57333333333337</v>
+        <v>54.6216666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="C59" t="n">
-        <v>53.01</v>
+        <v>53</v>
       </c>
       <c r="D59" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="E59" t="n">
-        <v>53.01</v>
+        <v>53</v>
       </c>
       <c r="F59" t="n">
-        <v>42.2535</v>
+        <v>40862.2969</v>
       </c>
       <c r="G59" t="n">
-        <v>54.5251666666667</v>
+        <v>54.57333333333337</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>53.1</v>
+        <v>53.01</v>
       </c>
       <c r="C60" t="n">
-        <v>53.1</v>
+        <v>53.01</v>
       </c>
       <c r="D60" t="n">
-        <v>53.1</v>
+        <v>53.01</v>
       </c>
       <c r="E60" t="n">
-        <v>53.1</v>
+        <v>53.01</v>
       </c>
       <c r="F60" t="n">
-        <v>3390</v>
+        <v>42.2535</v>
       </c>
       <c r="G60" t="n">
-        <v>54.50183333333337</v>
+        <v>54.5251666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>53.69</v>
+        <v>53.1</v>
       </c>
       <c r="C61" t="n">
-        <v>53.69</v>
+        <v>53.1</v>
       </c>
       <c r="D61" t="n">
-        <v>53.69</v>
+        <v>53.1</v>
       </c>
       <c r="E61" t="n">
-        <v>53.69</v>
+        <v>53.1</v>
       </c>
       <c r="F61" t="n">
-        <v>2974.3601</v>
+        <v>3390</v>
       </c>
       <c r="G61" t="n">
-        <v>54.46500000000003</v>
+        <v>54.50183333333337</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>53.69</v>
       </c>
       <c r="F62" t="n">
-        <v>3200</v>
+        <v>2974.3601</v>
       </c>
       <c r="G62" t="n">
-        <v>54.45150000000003</v>
+        <v>54.46500000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>53.83</v>
+        <v>53.69</v>
       </c>
       <c r="C63" t="n">
-        <v>53.86</v>
+        <v>53.69</v>
       </c>
       <c r="D63" t="n">
-        <v>53.86</v>
+        <v>53.69</v>
       </c>
       <c r="E63" t="n">
-        <v>53.83</v>
+        <v>53.69</v>
       </c>
       <c r="F63" t="n">
-        <v>537.6534</v>
+        <v>3200</v>
       </c>
       <c r="G63" t="n">
-        <v>54.45750000000003</v>
+        <v>54.45150000000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53.3</v>
+        <v>53.83</v>
       </c>
       <c r="C64" t="n">
-        <v>53.03</v>
+        <v>53.86</v>
       </c>
       <c r="D64" t="n">
-        <v>53.3</v>
+        <v>53.86</v>
       </c>
       <c r="E64" t="n">
-        <v>53.03</v>
+        <v>53.83</v>
       </c>
       <c r="F64" t="n">
-        <v>14926.4576</v>
+        <v>537.6534</v>
       </c>
       <c r="G64" t="n">
-        <v>54.4071666666667</v>
+        <v>54.45750000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>53.11</v>
+        <v>53.3</v>
       </c>
       <c r="C65" t="n">
-        <v>53</v>
+        <v>53.03</v>
       </c>
       <c r="D65" t="n">
-        <v>53.11</v>
+        <v>53.3</v>
       </c>
       <c r="E65" t="n">
-        <v>53</v>
+        <v>53.03</v>
       </c>
       <c r="F65" t="n">
-        <v>16112.2843</v>
+        <v>14926.4576</v>
       </c>
       <c r="G65" t="n">
-        <v>54.39383333333337</v>
+        <v>54.4071666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>53.1</v>
+        <v>53.11</v>
       </c>
       <c r="C66" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
-        <v>53.1</v>
+        <v>53.11</v>
       </c>
       <c r="E66" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>16112.2843</v>
       </c>
       <c r="G66" t="n">
-        <v>54.34733333333337</v>
+        <v>54.39383333333337</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,35 +2711,29 @@
         <v>53.1</v>
       </c>
       <c r="C67" t="n">
-        <v>53.19</v>
+        <v>53.1</v>
       </c>
       <c r="D67" t="n">
-        <v>53.19</v>
+        <v>53.1</v>
       </c>
       <c r="E67" t="n">
         <v>53.1</v>
       </c>
       <c r="F67" t="n">
-        <v>7096.0275</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>54.30233333333337</v>
+        <v>54.34733333333337</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2752,19 +2746,19 @@
         <v>53.1</v>
       </c>
       <c r="C68" t="n">
-        <v>53.1</v>
+        <v>53.19</v>
       </c>
       <c r="D68" t="n">
-        <v>53.1</v>
+        <v>53.19</v>
       </c>
       <c r="E68" t="n">
         <v>53.1</v>
       </c>
       <c r="F68" t="n">
-        <v>836.3693</v>
+        <v>7096.0275</v>
       </c>
       <c r="G68" t="n">
-        <v>54.2561666666667</v>
+        <v>54.30233333333337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2774,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2800,26 +2790,20 @@
         <v>53.1</v>
       </c>
       <c r="F69" t="n">
-        <v>843.9557</v>
+        <v>836.3693</v>
       </c>
       <c r="G69" t="n">
-        <v>54.24733333333337</v>
+        <v>54.2561666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2829,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="C70" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="D70" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="E70" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="F70" t="n">
-        <v>98.6138</v>
+        <v>843.9557</v>
       </c>
       <c r="G70" t="n">
-        <v>54.20750000000003</v>
+        <v>54.24733333333337</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2854,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2871,19 +2851,19 @@
         <v>53.01</v>
       </c>
       <c r="C71" t="n">
-        <v>53</v>
+        <v>53.01</v>
       </c>
       <c r="D71" t="n">
         <v>53.01</v>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>53.01</v>
       </c>
       <c r="F71" t="n">
-        <v>22878.1392</v>
+        <v>98.6138</v>
       </c>
       <c r="G71" t="n">
-        <v>54.17583333333337</v>
+        <v>54.20750000000003</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2892,14 +2872,12 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>53.01</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>53.1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2909,22 +2887,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>53</v>
+        <v>53.01</v>
       </c>
       <c r="C72" t="n">
         <v>53</v>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
+        <v>53.01</v>
       </c>
       <c r="E72" t="n">
         <v>53</v>
       </c>
       <c r="F72" t="n">
-        <v>117.0853</v>
+        <v>22878.1392</v>
       </c>
       <c r="G72" t="n">
-        <v>54.14433333333337</v>
+        <v>54.17583333333337</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2933,10 +2911,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -2948,22 +2928,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>53.59</v>
+        <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>53.6</v>
+        <v>53</v>
       </c>
       <c r="D73" t="n">
-        <v>53.6</v>
+        <v>53</v>
       </c>
       <c r="E73" t="n">
-        <v>53.59</v>
+        <v>53</v>
       </c>
       <c r="F73" t="n">
-        <v>12434.6062</v>
+        <v>117.0853</v>
       </c>
       <c r="G73" t="n">
-        <v>54.14100000000003</v>
+        <v>54.14433333333337</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2972,7 +2952,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2987,7 +2969,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53.6</v>
+        <v>53.59</v>
       </c>
       <c r="C74" t="n">
         <v>53.6</v>
@@ -2996,24 +2978,24 @@
         <v>53.6</v>
       </c>
       <c r="E74" t="n">
-        <v>53.6</v>
+        <v>53.59</v>
       </c>
       <c r="F74" t="n">
-        <v>2107.6455</v>
+        <v>12434.6062</v>
       </c>
       <c r="G74" t="n">
-        <v>54.13250000000003</v>
+        <v>54.14100000000003</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,33 +3010,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.12</v>
+        <v>53.6</v>
       </c>
       <c r="C75" t="n">
-        <v>53.12</v>
+        <v>53.6</v>
       </c>
       <c r="D75" t="n">
-        <v>53.12</v>
+        <v>53.6</v>
       </c>
       <c r="E75" t="n">
-        <v>53.12</v>
+        <v>53.6</v>
       </c>
       <c r="F75" t="n">
-        <v>14.5753</v>
+        <v>2107.6455</v>
       </c>
       <c r="G75" t="n">
-        <v>54.11933333333336</v>
+        <v>54.13250000000003</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3069,22 +3051,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>53.78</v>
+        <v>53.12</v>
       </c>
       <c r="C76" t="n">
-        <v>53.78</v>
+        <v>53.12</v>
       </c>
       <c r="D76" t="n">
-        <v>53.78</v>
+        <v>53.12</v>
       </c>
       <c r="E76" t="n">
-        <v>53.78</v>
+        <v>53.12</v>
       </c>
       <c r="F76" t="n">
-        <v>58.4245</v>
+        <v>14.5753</v>
       </c>
       <c r="G76" t="n">
-        <v>54.11700000000003</v>
+        <v>54.11933333333336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3093,7 +3075,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,21 +3104,21 @@
         <v>53.78</v>
       </c>
       <c r="F77" t="n">
-        <v>26.2817</v>
+        <v>58.4245</v>
       </c>
       <c r="G77" t="n">
-        <v>54.0636666666667</v>
+        <v>54.11700000000003</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>53.78</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,10 +3145,10 @@
         <v>53.78</v>
       </c>
       <c r="F78" t="n">
-        <v>5578.281889178133</v>
+        <v>26.2817</v>
       </c>
       <c r="G78" t="n">
-        <v>54.0116666666667</v>
+        <v>54.0636666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3173,7 +3157,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,10 +3186,10 @@
         <v>53.78</v>
       </c>
       <c r="F79" t="n">
-        <v>27.79843808107103</v>
+        <v>5578.281889178133</v>
       </c>
       <c r="G79" t="n">
-        <v>54.00466666666671</v>
+        <v>54.0116666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3212,7 +3198,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,22 +3215,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>53.51</v>
+        <v>53.78</v>
       </c>
       <c r="C80" t="n">
-        <v>53.21</v>
+        <v>53.78</v>
       </c>
       <c r="D80" t="n">
-        <v>53.51</v>
+        <v>53.78</v>
       </c>
       <c r="E80" t="n">
-        <v>53.21</v>
+        <v>53.78</v>
       </c>
       <c r="F80" t="n">
-        <v>27.7984</v>
+        <v>27.79843808107103</v>
       </c>
       <c r="G80" t="n">
-        <v>53.98816666666671</v>
+        <v>54.00466666666671</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3251,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,22 +3256,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="C81" t="n">
         <v>53.21</v>
       </c>
-      <c r="C81" t="n">
-        <v>53.14</v>
-      </c>
       <c r="D81" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="E81" t="n">
         <v>53.21</v>
       </c>
-      <c r="E81" t="n">
-        <v>53.14</v>
-      </c>
       <c r="F81" t="n">
-        <v>18263.9215</v>
+        <v>27.7984</v>
       </c>
       <c r="G81" t="n">
-        <v>53.97383333333337</v>
+        <v>53.98816666666671</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3290,7 +3280,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,22 +3297,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>53.3</v>
+        <v>53.21</v>
       </c>
       <c r="C82" t="n">
-        <v>53.3</v>
+        <v>53.14</v>
       </c>
       <c r="D82" t="n">
-        <v>53.3</v>
+        <v>53.21</v>
       </c>
       <c r="E82" t="n">
         <v>53.14</v>
       </c>
       <c r="F82" t="n">
-        <v>7356.636</v>
+        <v>18263.9215</v>
       </c>
       <c r="G82" t="n">
-        <v>53.84633333333338</v>
+        <v>53.97383333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3329,7 +3321,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,22 +3338,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C83" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="D83" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E83" t="n">
-        <v>53.2</v>
+        <v>53.14</v>
       </c>
       <c r="F83" t="n">
-        <v>76557.57919999999</v>
+        <v>7356.636</v>
       </c>
       <c r="G83" t="n">
-        <v>53.82466666666672</v>
+        <v>53.84633333333338</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3368,7 +3362,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,22 +3379,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>53.11</v>
+        <v>53.2</v>
       </c>
       <c r="C84" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D84" t="n">
-        <v>53.11</v>
+        <v>53.2</v>
       </c>
       <c r="E84" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="F84" t="n">
-        <v>29654.205</v>
+        <v>76557.57919999999</v>
       </c>
       <c r="G84" t="n">
-        <v>53.80133333333337</v>
+        <v>53.82466666666672</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3407,7 +3403,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,22 +3420,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>53.1</v>
+        <v>53.11</v>
       </c>
       <c r="C85" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="D85" t="n">
-        <v>53.1</v>
+        <v>53.11</v>
       </c>
       <c r="E85" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="F85" t="n">
-        <v>13944.3801</v>
+        <v>29654.205</v>
       </c>
       <c r="G85" t="n">
-        <v>53.77816666666671</v>
+        <v>53.80133333333337</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3446,7 +3444,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,22 +3461,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="C86" t="n">
         <v>53.01</v>
       </c>
       <c r="D86" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="E86" t="n">
         <v>53.01</v>
       </c>
       <c r="F86" t="n">
-        <v>2874.0627</v>
+        <v>13944.3801</v>
       </c>
       <c r="G86" t="n">
-        <v>53.71350000000005</v>
+        <v>53.77816666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3485,7 +3485,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,10 +3514,10 @@
         <v>53.01</v>
       </c>
       <c r="F87" t="n">
-        <v>2874.0628</v>
+        <v>2874.0627</v>
       </c>
       <c r="G87" t="n">
-        <v>53.70183333333339</v>
+        <v>53.71350000000005</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3524,7 +3526,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,22 +3543,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>53.58</v>
+        <v>53.01</v>
       </c>
       <c r="C88" t="n">
-        <v>53.05</v>
+        <v>53.01</v>
       </c>
       <c r="D88" t="n">
-        <v>53.6</v>
+        <v>53.01</v>
       </c>
       <c r="E88" t="n">
-        <v>53.05</v>
+        <v>53.01</v>
       </c>
       <c r="F88" t="n">
-        <v>7157.711441865672</v>
+        <v>2874.0628</v>
       </c>
       <c r="G88" t="n">
-        <v>53.66933333333339</v>
+        <v>53.70183333333339</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3563,7 +3567,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,22 +3584,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>53.59</v>
+        <v>53.58</v>
       </c>
       <c r="C89" t="n">
-        <v>53.59</v>
+        <v>53.05</v>
       </c>
       <c r="D89" t="n">
-        <v>53.59</v>
+        <v>53.6</v>
       </c>
       <c r="E89" t="n">
-        <v>53.59</v>
+        <v>53.05</v>
       </c>
       <c r="F89" t="n">
-        <v>5291.637</v>
+        <v>7157.711441865672</v>
       </c>
       <c r="G89" t="n">
-        <v>53.61766666666673</v>
+        <v>53.66933333333339</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3602,7 +3608,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,22 +3625,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>53.79</v>
+        <v>53.59</v>
       </c>
       <c r="C90" t="n">
-        <v>53.79</v>
+        <v>53.59</v>
       </c>
       <c r="D90" t="n">
-        <v>53.79</v>
+        <v>53.59</v>
       </c>
       <c r="E90" t="n">
-        <v>53.79</v>
+        <v>53.59</v>
       </c>
       <c r="F90" t="n">
-        <v>11.5869</v>
+        <v>5291.637</v>
       </c>
       <c r="G90" t="n">
-        <v>53.5958333333334</v>
+        <v>53.61766666666673</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3641,7 +3649,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,10 +3678,10 @@
         <v>53.79</v>
       </c>
       <c r="F91" t="n">
-        <v>71.1324</v>
+        <v>11.5869</v>
       </c>
       <c r="G91" t="n">
-        <v>53.57550000000005</v>
+        <v>53.5958333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3680,7 +3690,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,19 +3710,19 @@
         <v>53.79</v>
       </c>
       <c r="C92" t="n">
-        <v>53.8</v>
+        <v>53.79</v>
       </c>
       <c r="D92" t="n">
-        <v>53.8</v>
+        <v>53.79</v>
       </c>
       <c r="E92" t="n">
         <v>53.79</v>
       </c>
       <c r="F92" t="n">
-        <v>18436.8376</v>
+        <v>71.1324</v>
       </c>
       <c r="G92" t="n">
-        <v>53.5273333333334</v>
+        <v>53.57550000000005</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3719,7 +3731,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>53.85</v>
+        <v>53.79</v>
       </c>
       <c r="C93" t="n">
-        <v>53.85</v>
+        <v>53.8</v>
       </c>
       <c r="D93" t="n">
-        <v>53.85</v>
+        <v>53.8</v>
       </c>
       <c r="E93" t="n">
-        <v>53.85</v>
+        <v>53.79</v>
       </c>
       <c r="F93" t="n">
-        <v>3571.6945</v>
+        <v>18436.8376</v>
       </c>
       <c r="G93" t="n">
-        <v>53.53066666666673</v>
+        <v>53.5273333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3758,7 +3772,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,10 +3801,10 @@
         <v>53.85</v>
       </c>
       <c r="F94" t="n">
-        <v>45165.9437</v>
+        <v>3571.6945</v>
       </c>
       <c r="G94" t="n">
-        <v>53.53266666666672</v>
+        <v>53.53066666666673</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3797,7 +3813,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,22 +3830,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>53.86</v>
+        <v>53.85</v>
       </c>
       <c r="C95" t="n">
-        <v>54</v>
+        <v>53.85</v>
       </c>
       <c r="D95" t="n">
-        <v>54</v>
+        <v>53.85</v>
       </c>
       <c r="E95" t="n">
-        <v>53.86</v>
+        <v>53.85</v>
       </c>
       <c r="F95" t="n">
-        <v>4627.3867</v>
+        <v>45165.9437</v>
       </c>
       <c r="G95" t="n">
-        <v>53.53250000000005</v>
+        <v>53.53266666666672</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3836,7 +3854,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,7 +3871,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54</v>
+        <v>53.86</v>
       </c>
       <c r="C96" t="n">
         <v>54</v>
@@ -3860,13 +3880,13 @@
         <v>54</v>
       </c>
       <c r="E96" t="n">
-        <v>54</v>
+        <v>53.86</v>
       </c>
       <c r="F96" t="n">
-        <v>2489.6368</v>
+        <v>4627.3867</v>
       </c>
       <c r="G96" t="n">
-        <v>53.50416666666672</v>
+        <v>53.53250000000005</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3875,7 +3895,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,22 +3912,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>54.43</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>54.43</v>
+        <v>54</v>
       </c>
       <c r="D97" t="n">
-        <v>54.43</v>
+        <v>54</v>
       </c>
       <c r="E97" t="n">
-        <v>54.43</v>
+        <v>54</v>
       </c>
       <c r="F97" t="n">
-        <v>3517</v>
+        <v>2489.6368</v>
       </c>
       <c r="G97" t="n">
-        <v>53.50866666666672</v>
+        <v>53.50416666666672</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3914,7 +3936,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,22 +3953,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54.45</v>
+        <v>54.43</v>
       </c>
       <c r="C98" t="n">
-        <v>54.45</v>
+        <v>54.43</v>
       </c>
       <c r="D98" t="n">
-        <v>54.45</v>
+        <v>54.43</v>
       </c>
       <c r="E98" t="n">
-        <v>54.45</v>
+        <v>54.43</v>
       </c>
       <c r="F98" t="n">
-        <v>43851.7758</v>
+        <v>3517</v>
       </c>
       <c r="G98" t="n">
-        <v>53.51550000000005</v>
+        <v>53.50866666666672</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3953,7 +3977,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,22 +3994,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>54.48</v>
+        <v>54.45</v>
       </c>
       <c r="C99" t="n">
-        <v>54.48</v>
+        <v>54.45</v>
       </c>
       <c r="D99" t="n">
-        <v>54.48</v>
+        <v>54.45</v>
       </c>
       <c r="E99" t="n">
-        <v>54.48</v>
+        <v>54.45</v>
       </c>
       <c r="F99" t="n">
-        <v>847.5</v>
+        <v>43851.7758</v>
       </c>
       <c r="G99" t="n">
-        <v>53.52183333333338</v>
+        <v>53.51550000000005</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3992,7 +4018,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,10 +4047,10 @@
         <v>54.48</v>
       </c>
       <c r="F100" t="n">
-        <v>3696.096</v>
+        <v>847.5</v>
       </c>
       <c r="G100" t="n">
-        <v>53.52333333333339</v>
+        <v>53.52183333333338</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4031,7 +4059,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,10 +4088,10 @@
         <v>54.48</v>
       </c>
       <c r="F101" t="n">
-        <v>7300.7868</v>
+        <v>3696.096</v>
       </c>
       <c r="G101" t="n">
-        <v>53.52300000000005</v>
+        <v>53.52333333333339</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4070,7 +4100,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,22 +4117,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>54.43</v>
+        <v>54.48</v>
       </c>
       <c r="C102" t="n">
-        <v>54.43</v>
+        <v>54.48</v>
       </c>
       <c r="D102" t="n">
-        <v>54.43</v>
+        <v>54.48</v>
       </c>
       <c r="E102" t="n">
-        <v>54.43</v>
+        <v>54.48</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1082</v>
+        <v>7300.7868</v>
       </c>
       <c r="G102" t="n">
-        <v>53.52850000000005</v>
+        <v>53.52300000000005</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4109,7 +4141,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,22 +4158,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>54.44</v>
+        <v>54.43</v>
       </c>
       <c r="C103" t="n">
-        <v>54.44</v>
+        <v>54.43</v>
       </c>
       <c r="D103" t="n">
-        <v>54.44</v>
+        <v>54.43</v>
       </c>
       <c r="E103" t="n">
-        <v>54.44</v>
+        <v>54.43</v>
       </c>
       <c r="F103" t="n">
-        <v>7345.5221</v>
+        <v>0.1082</v>
       </c>
       <c r="G103" t="n">
-        <v>53.53566666666672</v>
+        <v>53.52850000000005</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4148,7 +4182,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,22 +4199,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>54.9</v>
+        <v>54.44</v>
       </c>
       <c r="C104" t="n">
-        <v>54.9</v>
+        <v>54.44</v>
       </c>
       <c r="D104" t="n">
-        <v>54.9</v>
+        <v>54.44</v>
       </c>
       <c r="E104" t="n">
-        <v>54.9</v>
+        <v>54.44</v>
       </c>
       <c r="F104" t="n">
-        <v>4998.5687</v>
+        <v>7345.5221</v>
       </c>
       <c r="G104" t="n">
-        <v>53.55500000000006</v>
+        <v>53.53566666666672</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4187,7 +4223,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,22 +4240,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>54.58</v>
+        <v>54.9</v>
       </c>
       <c r="C105" t="n">
-        <v>54.58</v>
+        <v>54.9</v>
       </c>
       <c r="D105" t="n">
-        <v>54.58</v>
+        <v>54.9</v>
       </c>
       <c r="E105" t="n">
-        <v>54.58</v>
+        <v>54.9</v>
       </c>
       <c r="F105" t="n">
-        <v>183.2172</v>
+        <v>4998.5687</v>
       </c>
       <c r="G105" t="n">
-        <v>53.56900000000006</v>
+        <v>53.55500000000006</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4226,7 +4264,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,10 +4293,10 @@
         <v>54.58</v>
       </c>
       <c r="F106" t="n">
-        <v>5421.819</v>
+        <v>183.2172</v>
       </c>
       <c r="G106" t="n">
-        <v>53.59033333333339</v>
+        <v>53.56900000000006</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4265,7 +4305,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,22 +4322,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54.9</v>
+        <v>54.58</v>
       </c>
       <c r="C107" t="n">
-        <v>54.9</v>
+        <v>54.58</v>
       </c>
       <c r="D107" t="n">
-        <v>54.9</v>
+        <v>54.58</v>
       </c>
       <c r="E107" t="n">
-        <v>54.9</v>
+        <v>54.58</v>
       </c>
       <c r="F107" t="n">
-        <v>18.7874</v>
+        <v>5421.819</v>
       </c>
       <c r="G107" t="n">
-        <v>53.61700000000005</v>
+        <v>53.59033333333339</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4304,7 +4346,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,10 +4375,10 @@
         <v>54.9</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>18.7874</v>
       </c>
       <c r="G108" t="n">
-        <v>53.64583333333339</v>
+        <v>53.61700000000005</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4343,7 +4387,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,7 +4404,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>54.59</v>
+        <v>54.9</v>
       </c>
       <c r="C109" t="n">
         <v>54.9</v>
@@ -4367,13 +4413,13 @@
         <v>54.9</v>
       </c>
       <c r="E109" t="n">
-        <v>54.59</v>
+        <v>54.9</v>
       </c>
       <c r="F109" t="n">
-        <v>5481.6873</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>53.67250000000005</v>
+        <v>53.64583333333339</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4382,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,22 +4445,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>55.11</v>
+        <v>54.59</v>
       </c>
       <c r="C110" t="n">
         <v>54.9</v>
       </c>
       <c r="D110" t="n">
-        <v>55.11</v>
+        <v>54.9</v>
       </c>
       <c r="E110" t="n">
-        <v>54.9</v>
+        <v>54.59</v>
       </c>
       <c r="F110" t="n">
-        <v>21294.0664</v>
+        <v>5481.6873</v>
       </c>
       <c r="G110" t="n">
-        <v>53.70166666666672</v>
+        <v>53.67250000000005</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4421,7 +4469,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,22 +4486,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>54.1</v>
+        <v>55.11</v>
       </c>
       <c r="C111" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="D111" t="n">
-        <v>54.1</v>
+        <v>55.11</v>
       </c>
       <c r="E111" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="F111" t="n">
-        <v>8859.830599999999</v>
+        <v>21294.0664</v>
       </c>
       <c r="G111" t="n">
-        <v>53.72600000000005</v>
+        <v>53.70166666666672</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4460,7 +4510,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,22 +4527,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="C112" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="D112" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="E112" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="F112" t="n">
-        <v>9628.873</v>
+        <v>8859.830599999999</v>
       </c>
       <c r="G112" t="n">
-        <v>53.72433333333338</v>
+        <v>53.72600000000005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4499,7 +4551,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,22 +4568,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>54.4</v>
+        <v>54.19</v>
       </c>
       <c r="C113" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="D113" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="E113" t="n">
-        <v>54.4</v>
+        <v>54.19</v>
       </c>
       <c r="F113" t="n">
-        <v>4901.703</v>
+        <v>9628.873</v>
       </c>
       <c r="G113" t="n">
-        <v>53.72933333333338</v>
+        <v>53.72433333333338</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4538,7 +4592,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,22 +4609,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>54.48</v>
+        <v>54.4</v>
       </c>
       <c r="C114" t="n">
-        <v>54.48</v>
+        <v>54.4</v>
       </c>
       <c r="D114" t="n">
-        <v>54.48</v>
+        <v>54.4</v>
       </c>
       <c r="E114" t="n">
-        <v>54.48</v>
+        <v>54.4</v>
       </c>
       <c r="F114" t="n">
-        <v>722.2679000000001</v>
+        <v>4901.703</v>
       </c>
       <c r="G114" t="n">
-        <v>53.73733333333338</v>
+        <v>53.72933333333338</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4577,7 +4633,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4604,10 +4662,10 @@
         <v>54.48</v>
       </c>
       <c r="F115" t="n">
-        <v>4750.2137</v>
+        <v>722.2679000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>53.76116666666671</v>
+        <v>53.73733333333338</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4616,7 +4674,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,19 +4694,19 @@
         <v>54.48</v>
       </c>
       <c r="C116" t="n">
-        <v>54.4</v>
+        <v>54.48</v>
       </c>
       <c r="D116" t="n">
         <v>54.48</v>
       </c>
       <c r="E116" t="n">
-        <v>54.4</v>
+        <v>54.48</v>
       </c>
       <c r="F116" t="n">
-        <v>2476.17</v>
+        <v>4750.2137</v>
       </c>
       <c r="G116" t="n">
-        <v>53.78366666666671</v>
+        <v>53.76116666666671</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4655,7 +4715,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,22 +4732,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54.2</v>
+        <v>54.48</v>
       </c>
       <c r="C117" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="D117" t="n">
-        <v>54.2</v>
+        <v>54.48</v>
       </c>
       <c r="E117" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="F117" t="n">
-        <v>1261.4834</v>
+        <v>2476.17</v>
       </c>
       <c r="G117" t="n">
-        <v>53.78550000000004</v>
+        <v>53.78366666666671</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4694,7 +4756,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,22 +4773,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="C118" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="D118" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="E118" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="F118" t="n">
-        <v>4112.7368</v>
+        <v>1261.4834</v>
       </c>
       <c r="G118" t="n">
-        <v>53.80566666666671</v>
+        <v>53.78550000000004</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4733,7 +4797,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,22 +4814,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>54.79</v>
+        <v>54.21</v>
       </c>
       <c r="C119" t="n">
-        <v>54.89</v>
+        <v>54.21</v>
       </c>
       <c r="D119" t="n">
-        <v>54.89</v>
+        <v>54.21</v>
       </c>
       <c r="E119" t="n">
-        <v>54.79</v>
+        <v>54.21</v>
       </c>
       <c r="F119" t="n">
-        <v>5461.392005939151</v>
+        <v>4112.7368</v>
       </c>
       <c r="G119" t="n">
-        <v>53.83700000000003</v>
+        <v>53.80566666666671</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4772,7 +4838,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,7 +4855,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.89</v>
+        <v>54.79</v>
       </c>
       <c r="C120" t="n">
         <v>54.89</v>
@@ -4796,13 +4864,13 @@
         <v>54.89</v>
       </c>
       <c r="E120" t="n">
-        <v>54.89</v>
+        <v>54.79</v>
       </c>
       <c r="F120" t="n">
-        <v>5366.64619353252</v>
+        <v>5461.392005939151</v>
       </c>
       <c r="G120" t="n">
-        <v>53.86683333333337</v>
+        <v>53.83700000000003</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4811,7 +4879,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,10 +4908,10 @@
         <v>54.89</v>
       </c>
       <c r="F121" t="n">
-        <v>63.89141920204045</v>
+        <v>5366.64619353252</v>
       </c>
       <c r="G121" t="n">
-        <v>53.88683333333336</v>
+        <v>53.86683333333337</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4850,7 +4920,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,10 +4949,10 @@
         <v>54.89</v>
       </c>
       <c r="F122" t="n">
-        <v>8049.0145</v>
+        <v>63.89141920204045</v>
       </c>
       <c r="G122" t="n">
-        <v>53.90683333333336</v>
+        <v>53.88683333333336</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4889,7 +4961,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,10 +4990,10 @@
         <v>54.89</v>
       </c>
       <c r="F123" t="n">
-        <v>7807.977581326289</v>
+        <v>8049.0145</v>
       </c>
       <c r="G123" t="n">
-        <v>53.92400000000002</v>
+        <v>53.90683333333336</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4928,7 +5002,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,22 +5019,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>55.01</v>
+        <v>54.89</v>
       </c>
       <c r="C124" t="n">
-        <v>55.01</v>
+        <v>54.89</v>
       </c>
       <c r="D124" t="n">
-        <v>55.01</v>
+        <v>54.89</v>
       </c>
       <c r="E124" t="n">
-        <v>55.01</v>
+        <v>54.89</v>
       </c>
       <c r="F124" t="n">
-        <v>6102.3877</v>
+        <v>7807.977581326289</v>
       </c>
       <c r="G124" t="n">
-        <v>53.95700000000002</v>
+        <v>53.92400000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4967,7 +5043,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,22 +5060,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.89</v>
+        <v>55.01</v>
       </c>
       <c r="C125" t="n">
-        <v>54.89</v>
+        <v>55.01</v>
       </c>
       <c r="D125" t="n">
-        <v>54.89</v>
+        <v>55.01</v>
       </c>
       <c r="E125" t="n">
-        <v>54.89</v>
+        <v>55.01</v>
       </c>
       <c r="F125" t="n">
-        <v>5408.289</v>
+        <v>6102.3877</v>
       </c>
       <c r="G125" t="n">
-        <v>53.98850000000002</v>
+        <v>53.95700000000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5006,7 +5084,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5021,22 +5101,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>55.01</v>
+        <v>54.89</v>
       </c>
       <c r="C126" t="n">
-        <v>55.56</v>
+        <v>54.89</v>
       </c>
       <c r="D126" t="n">
-        <v>55.56</v>
+        <v>54.89</v>
       </c>
       <c r="E126" t="n">
-        <v>55.01</v>
+        <v>54.89</v>
       </c>
       <c r="F126" t="n">
-        <v>2826.9451</v>
+        <v>5408.289</v>
       </c>
       <c r="G126" t="n">
-        <v>54.02950000000002</v>
+        <v>53.98850000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5045,7 +5125,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,22 +5142,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>55.6</v>
+        <v>55.01</v>
       </c>
       <c r="C127" t="n">
-        <v>55.6</v>
+        <v>55.56</v>
       </c>
       <c r="D127" t="n">
-        <v>55.6</v>
+        <v>55.56</v>
       </c>
       <c r="E127" t="n">
-        <v>55.6</v>
+        <v>55.01</v>
       </c>
       <c r="F127" t="n">
-        <v>1694.0987</v>
+        <v>2826.9451</v>
       </c>
       <c r="G127" t="n">
-        <v>54.06966666666668</v>
+        <v>54.02950000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5084,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,22 +5183,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="C128" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="D128" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="E128" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="F128" t="n">
-        <v>5079.7345</v>
+        <v>1694.0987</v>
       </c>
       <c r="G128" t="n">
-        <v>54.11300000000002</v>
+        <v>54.06966666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5123,7 +5207,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,22 +5224,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="C129" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="D129" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="E129" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="F129" t="n">
-        <v>79.7146</v>
+        <v>5079.7345</v>
       </c>
       <c r="G129" t="n">
-        <v>54.16133333333335</v>
+        <v>54.11300000000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5162,7 +5248,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,10 +5277,10 @@
         <v>56</v>
       </c>
       <c r="F130" t="n">
-        <v>106.2254</v>
+        <v>79.7146</v>
       </c>
       <c r="G130" t="n">
-        <v>54.21116666666668</v>
+        <v>54.16133333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5201,7 +5289,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,10 +5318,10 @@
         <v>56</v>
       </c>
       <c r="F131" t="n">
-        <v>735.7613</v>
+        <v>106.2254</v>
       </c>
       <c r="G131" t="n">
-        <v>54.26116666666668</v>
+        <v>54.21116666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5240,7 +5330,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,22 +5347,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>56.55</v>
+        <v>56</v>
       </c>
       <c r="C132" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D132" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E132" t="n">
-        <v>56.55</v>
+        <v>56</v>
       </c>
       <c r="F132" t="n">
-        <v>9944.045607596492</v>
+        <v>735.7613</v>
       </c>
       <c r="G132" t="n">
-        <v>54.32783333333335</v>
+        <v>54.26116666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5279,7 +5371,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,7 +5388,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>57</v>
+        <v>56.55</v>
       </c>
       <c r="C133" t="n">
         <v>57</v>
@@ -5303,13 +5397,13 @@
         <v>57</v>
       </c>
       <c r="E133" t="n">
-        <v>57</v>
+        <v>56.55</v>
       </c>
       <c r="F133" t="n">
-        <v>3069.062092403509</v>
+        <v>9944.045607596492</v>
       </c>
       <c r="G133" t="n">
-        <v>54.38450000000002</v>
+        <v>54.32783333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5318,7 +5412,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,22 +5429,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>57.11</v>
+        <v>57</v>
       </c>
       <c r="C134" t="n">
-        <v>56.99</v>
+        <v>57</v>
       </c>
       <c r="D134" t="n">
-        <v>57.11</v>
+        <v>57</v>
       </c>
       <c r="E134" t="n">
-        <v>56.99</v>
+        <v>57</v>
       </c>
       <c r="F134" t="n">
-        <v>15238.46532538909</v>
+        <v>3069.062092403509</v>
       </c>
       <c r="G134" t="n">
-        <v>54.44100000000002</v>
+        <v>54.38450000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5357,7 +5453,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,22 +5470,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>56</v>
+        <v>57.11</v>
       </c>
       <c r="C135" t="n">
-        <v>56</v>
+        <v>56.99</v>
       </c>
       <c r="D135" t="n">
-        <v>56</v>
+        <v>57.11</v>
       </c>
       <c r="E135" t="n">
-        <v>56</v>
+        <v>56.99</v>
       </c>
       <c r="F135" t="n">
-        <v>2461.611</v>
+        <v>15238.46532538909</v>
       </c>
       <c r="G135" t="n">
-        <v>54.48900000000002</v>
+        <v>54.44100000000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5396,7 +5494,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,22 +5511,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>54.91</v>
+        <v>56</v>
       </c>
       <c r="C136" t="n">
-        <v>54.91</v>
+        <v>56</v>
       </c>
       <c r="D136" t="n">
-        <v>54.91</v>
+        <v>56</v>
       </c>
       <c r="E136" t="n">
-        <v>54.91</v>
+        <v>56</v>
       </c>
       <c r="F136" t="n">
-        <v>1665.8853</v>
+        <v>2461.611</v>
       </c>
       <c r="G136" t="n">
-        <v>54.50783333333334</v>
+        <v>54.48900000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5435,7 +5535,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,10 +5564,10 @@
         <v>54.91</v>
       </c>
       <c r="F137" t="n">
-        <v>2795.9607</v>
+        <v>1665.8853</v>
       </c>
       <c r="G137" t="n">
-        <v>54.52666666666667</v>
+        <v>54.50783333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5474,7 +5576,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,10 +5605,10 @@
         <v>54.91</v>
       </c>
       <c r="F138" t="n">
-        <v>69599.7249</v>
+        <v>2795.9607</v>
       </c>
       <c r="G138" t="n">
-        <v>54.5455</v>
+        <v>54.52666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5513,7 +5617,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,10 +5646,10 @@
         <v>54.91</v>
       </c>
       <c r="F139" t="n">
-        <v>8096.1895</v>
+        <v>69599.7249</v>
       </c>
       <c r="G139" t="n">
-        <v>54.56433333333333</v>
+        <v>54.5455</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5552,7 +5658,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,7 +5675,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>54.76</v>
+        <v>54.91</v>
       </c>
       <c r="C140" t="n">
         <v>54.91</v>
@@ -5576,13 +5684,13 @@
         <v>54.91</v>
       </c>
       <c r="E140" t="n">
-        <v>54.76</v>
+        <v>54.91</v>
       </c>
       <c r="F140" t="n">
-        <v>10662.78055711164</v>
+        <v>8096.1895</v>
       </c>
       <c r="G140" t="n">
-        <v>54.59266666666666</v>
+        <v>54.56433333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5591,7 +5699,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,7 +5716,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>54.91</v>
+        <v>54.76</v>
       </c>
       <c r="C141" t="n">
         <v>54.91</v>
@@ -5615,13 +5725,13 @@
         <v>54.91</v>
       </c>
       <c r="E141" t="n">
-        <v>54.91</v>
+        <v>54.76</v>
       </c>
       <c r="F141" t="n">
-        <v>26615.67444288836</v>
+        <v>10662.78055711164</v>
       </c>
       <c r="G141" t="n">
-        <v>54.62216666666666</v>
+        <v>54.59266666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5630,7 +5740,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5645,22 +5757,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>57.86</v>
+        <v>54.91</v>
       </c>
       <c r="C142" t="n">
-        <v>57.86</v>
+        <v>54.91</v>
       </c>
       <c r="D142" t="n">
-        <v>57.86</v>
+        <v>54.91</v>
       </c>
       <c r="E142" t="n">
-        <v>57.86</v>
+        <v>54.91</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>26615.67444288836</v>
       </c>
       <c r="G142" t="n">
-        <v>54.69816666666666</v>
+        <v>54.62216666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5669,7 +5781,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,22 +5798,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>55.71</v>
+        <v>57.86</v>
       </c>
       <c r="C143" t="n">
-        <v>57.77</v>
+        <v>57.86</v>
       </c>
       <c r="D143" t="n">
-        <v>57.77</v>
+        <v>57.86</v>
       </c>
       <c r="E143" t="n">
-        <v>55.7</v>
+        <v>57.86</v>
       </c>
       <c r="F143" t="n">
-        <v>7693.2316</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>54.77433333333332</v>
+        <v>54.69816666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5708,7 +5822,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5723,7 +5839,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>57.77</v>
+        <v>55.71</v>
       </c>
       <c r="C144" t="n">
         <v>57.77</v>
@@ -5732,13 +5848,13 @@
         <v>57.77</v>
       </c>
       <c r="E144" t="n">
-        <v>57.77</v>
+        <v>55.7</v>
       </c>
       <c r="F144" t="n">
-        <v>473.7822</v>
+        <v>7693.2316</v>
       </c>
       <c r="G144" t="n">
-        <v>54.85216666666666</v>
+        <v>54.77433333333332</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5747,7 +5863,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5762,22 +5880,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>55.7</v>
+        <v>57.77</v>
       </c>
       <c r="C145" t="n">
-        <v>55.61</v>
+        <v>57.77</v>
       </c>
       <c r="D145" t="n">
-        <v>55.7</v>
+        <v>57.77</v>
       </c>
       <c r="E145" t="n">
-        <v>55.61</v>
+        <v>57.77</v>
       </c>
       <c r="F145" t="n">
-        <v>6250.8201</v>
+        <v>473.7822</v>
       </c>
       <c r="G145" t="n">
-        <v>54.89549999999999</v>
+        <v>54.85216666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5786,7 +5904,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,22 +5921,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>57.47</v>
+        <v>55.7</v>
       </c>
       <c r="C146" t="n">
-        <v>57.41</v>
+        <v>55.61</v>
       </c>
       <c r="D146" t="n">
-        <v>57.47</v>
+        <v>55.7</v>
       </c>
       <c r="E146" t="n">
-        <v>54.91</v>
+        <v>55.61</v>
       </c>
       <c r="F146" t="n">
-        <v>1511</v>
+        <v>6250.8201</v>
       </c>
       <c r="G146" t="n">
-        <v>54.96883333333332</v>
+        <v>54.89549999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5825,7 +5945,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,22 +5962,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>57.32</v>
+        <v>57.47</v>
       </c>
       <c r="C147" t="n">
-        <v>57.32</v>
+        <v>57.41</v>
       </c>
       <c r="D147" t="n">
-        <v>57.32</v>
+        <v>57.47</v>
       </c>
       <c r="E147" t="n">
-        <v>57.32</v>
+        <v>54.91</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>1511</v>
       </c>
       <c r="G147" t="n">
-        <v>55.04066666666665</v>
+        <v>54.96883333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5864,7 +5986,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5879,22 +6003,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>55.09</v>
+        <v>57.32</v>
       </c>
       <c r="C148" t="n">
-        <v>54.76</v>
+        <v>57.32</v>
       </c>
       <c r="D148" t="n">
-        <v>55.09</v>
+        <v>57.32</v>
       </c>
       <c r="E148" t="n">
-        <v>54.76</v>
+        <v>57.32</v>
       </c>
       <c r="F148" t="n">
-        <v>10016.3904</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>55.06916666666665</v>
+        <v>55.04066666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5903,7 +6027,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,22 +6044,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>56.81</v>
+        <v>55.09</v>
       </c>
       <c r="C149" t="n">
-        <v>56.81</v>
+        <v>54.76</v>
       </c>
       <c r="D149" t="n">
-        <v>56.81</v>
+        <v>55.09</v>
       </c>
       <c r="E149" t="n">
-        <v>56.81</v>
+        <v>54.76</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>10016.3904</v>
       </c>
       <c r="G149" t="n">
-        <v>55.12283333333332</v>
+        <v>55.06916666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5942,7 +6068,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5957,22 +6085,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>56.7</v>
+        <v>56.81</v>
       </c>
       <c r="C150" t="n">
-        <v>56.7</v>
+        <v>56.81</v>
       </c>
       <c r="D150" t="n">
-        <v>56.7</v>
+        <v>56.81</v>
       </c>
       <c r="E150" t="n">
-        <v>56.7</v>
+        <v>56.81</v>
       </c>
       <c r="F150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>55.17133333333332</v>
+        <v>55.12283333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5981,7 +6109,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,22 +6126,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>55.09</v>
+        <v>56.7</v>
       </c>
       <c r="C151" t="n">
-        <v>55.03</v>
+        <v>56.7</v>
       </c>
       <c r="D151" t="n">
-        <v>55.09</v>
+        <v>56.7</v>
       </c>
       <c r="E151" t="n">
-        <v>55.03</v>
+        <v>56.7</v>
       </c>
       <c r="F151" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G151" t="n">
-        <v>55.19199999999999</v>
+        <v>55.17133333333332</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6020,7 +6150,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,22 +6167,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>55</v>
+        <v>55.09</v>
       </c>
       <c r="C152" t="n">
-        <v>55</v>
+        <v>55.03</v>
       </c>
       <c r="D152" t="n">
-        <v>55</v>
+        <v>55.09</v>
       </c>
       <c r="E152" t="n">
-        <v>55</v>
+        <v>55.03</v>
       </c>
       <c r="F152" t="n">
-        <v>4196.8246</v>
+        <v>45</v>
       </c>
       <c r="G152" t="n">
-        <v>55.21199999999998</v>
+        <v>55.19199999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6059,7 +6191,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6074,22 +6208,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>55.89</v>
+        <v>55</v>
       </c>
       <c r="C153" t="n">
-        <v>55.89</v>
+        <v>55</v>
       </c>
       <c r="D153" t="n">
-        <v>55.89</v>
+        <v>55</v>
       </c>
       <c r="E153" t="n">
-        <v>55.89</v>
+        <v>55</v>
       </c>
       <c r="F153" t="n">
-        <v>5899.638</v>
+        <v>4196.8246</v>
       </c>
       <c r="G153" t="n">
-        <v>55.24599999999998</v>
+        <v>55.21199999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6098,7 +6232,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,10 +6261,10 @@
         <v>55.89</v>
       </c>
       <c r="F154" t="n">
-        <v>12248.8493</v>
+        <v>5899.638</v>
       </c>
       <c r="G154" t="n">
-        <v>55.27999999999998</v>
+        <v>55.24599999999998</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6137,7 +6273,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6164,10 +6302,10 @@
         <v>55.89</v>
       </c>
       <c r="F155" t="n">
-        <v>3704.4832</v>
+        <v>12248.8493</v>
       </c>
       <c r="G155" t="n">
-        <v>55.31149999999998</v>
+        <v>55.27999999999998</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6176,7 +6314,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,22 +6331,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>55.01</v>
+        <v>55.89</v>
       </c>
       <c r="C156" t="n">
-        <v>55</v>
+        <v>55.89</v>
       </c>
       <c r="D156" t="n">
-        <v>55.01</v>
+        <v>55.89</v>
       </c>
       <c r="E156" t="n">
-        <v>55</v>
+        <v>55.89</v>
       </c>
       <c r="F156" t="n">
-        <v>5115.1118</v>
+        <v>3704.4832</v>
       </c>
       <c r="G156" t="n">
-        <v>55.32816666666665</v>
+        <v>55.31149999999998</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6215,7 +6355,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,22 +6372,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>55.89</v>
+        <v>55.01</v>
       </c>
       <c r="C157" t="n">
-        <v>55.99</v>
+        <v>55</v>
       </c>
       <c r="D157" t="n">
-        <v>55.99</v>
+        <v>55.01</v>
       </c>
       <c r="E157" t="n">
-        <v>55.89</v>
+        <v>55</v>
       </c>
       <c r="F157" t="n">
-        <v>3572.573199321308</v>
+        <v>5115.1118</v>
       </c>
       <c r="G157" t="n">
-        <v>55.35416666666664</v>
+        <v>55.32816666666665</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6254,7 +6396,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6269,22 +6413,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>54.91</v>
+        <v>55.89</v>
       </c>
       <c r="C158" t="n">
-        <v>54.91</v>
+        <v>55.99</v>
       </c>
       <c r="D158" t="n">
-        <v>54.91</v>
+        <v>55.99</v>
       </c>
       <c r="E158" t="n">
-        <v>54.91</v>
+        <v>55.89</v>
       </c>
       <c r="F158" t="n">
-        <v>11</v>
+        <v>3572.573199321308</v>
       </c>
       <c r="G158" t="n">
-        <v>55.36183333333331</v>
+        <v>55.35416666666664</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6293,7 +6437,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,19 +6457,19 @@
         <v>54.91</v>
       </c>
       <c r="C159" t="n">
-        <v>54.9</v>
+        <v>54.91</v>
       </c>
       <c r="D159" t="n">
         <v>54.91</v>
       </c>
       <c r="E159" t="n">
-        <v>54.9</v>
+        <v>54.91</v>
       </c>
       <c r="F159" t="n">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="G159" t="n">
-        <v>55.36883333333331</v>
+        <v>55.36183333333331</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6332,7 +6478,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,22 +6495,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>55.77</v>
+        <v>54.91</v>
       </c>
       <c r="C160" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D160" t="n">
         <v>54.91</v>
       </c>
-      <c r="D160" t="n">
-        <v>55.77</v>
-      </c>
       <c r="E160" t="n">
-        <v>54.91</v>
+        <v>54.9</v>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="G160" t="n">
-        <v>55.37599999999998</v>
+        <v>55.36883333333331</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6371,7 +6519,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6386,22 +6536,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>55.01</v>
+        <v>55.77</v>
       </c>
       <c r="C161" t="n">
-        <v>54.77</v>
+        <v>54.91</v>
       </c>
       <c r="D161" t="n">
-        <v>55.01</v>
+        <v>55.77</v>
       </c>
       <c r="E161" t="n">
-        <v>54.77</v>
+        <v>54.91</v>
       </c>
       <c r="F161" t="n">
-        <v>5851.8712</v>
+        <v>20</v>
       </c>
       <c r="G161" t="n">
-        <v>55.38083333333331</v>
+        <v>55.37599999999998</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6410,7 +6560,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,22 +6577,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>55.3</v>
+        <v>55.01</v>
       </c>
       <c r="C162" t="n">
-        <v>54.78</v>
+        <v>54.77</v>
       </c>
       <c r="D162" t="n">
-        <v>55.88</v>
+        <v>55.01</v>
       </c>
       <c r="E162" t="n">
-        <v>54.78</v>
+        <v>54.77</v>
       </c>
       <c r="F162" t="n">
-        <v>9111.732599999999</v>
+        <v>5851.8712</v>
       </c>
       <c r="G162" t="n">
-        <v>55.38666666666665</v>
+        <v>55.38083333333331</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6449,7 +6601,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,22 +6618,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>54.91</v>
+        <v>55.3</v>
       </c>
       <c r="C163" t="n">
-        <v>54.91</v>
+        <v>54.78</v>
       </c>
       <c r="D163" t="n">
-        <v>54.91</v>
+        <v>55.88</v>
       </c>
       <c r="E163" t="n">
-        <v>54.91</v>
+        <v>54.78</v>
       </c>
       <c r="F163" t="n">
-        <v>11</v>
+        <v>9111.732599999999</v>
       </c>
       <c r="G163" t="n">
-        <v>55.39449999999998</v>
+        <v>55.38666666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6488,7 +6642,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,22 +6659,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>55.94</v>
+        <v>54.91</v>
       </c>
       <c r="C164" t="n">
-        <v>55.95</v>
+        <v>54.91</v>
       </c>
       <c r="D164" t="n">
-        <v>55.95</v>
+        <v>54.91</v>
       </c>
       <c r="E164" t="n">
-        <v>55.94</v>
+        <v>54.91</v>
       </c>
       <c r="F164" t="n">
-        <v>19013.3313</v>
+        <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>55.41199999999997</v>
+        <v>55.39449999999998</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6527,7 +6683,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6545,19 +6703,19 @@
         <v>55.94</v>
       </c>
       <c r="C165" t="n">
-        <v>54.91</v>
+        <v>55.95</v>
       </c>
       <c r="D165" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="E165" t="n">
         <v>55.94</v>
       </c>
-      <c r="E165" t="n">
-        <v>54.91</v>
-      </c>
       <c r="F165" t="n">
-        <v>16027.0068</v>
+        <v>19013.3313</v>
       </c>
       <c r="G165" t="n">
-        <v>55.41749999999998</v>
+        <v>55.41199999999997</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6566,7 +6724,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,22 +6741,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>55.94</v>
+      </c>
+      <c r="C166" t="n">
         <v>54.91</v>
       </c>
-      <c r="C166" t="n">
-        <v>54.77</v>
-      </c>
       <c r="D166" t="n">
+        <v>55.94</v>
+      </c>
+      <c r="E166" t="n">
         <v>54.91</v>
       </c>
-      <c r="E166" t="n">
-        <v>54.77</v>
-      </c>
       <c r="F166" t="n">
-        <v>3821.6948</v>
+        <v>16027.0068</v>
       </c>
       <c r="G166" t="n">
-        <v>55.42066666666664</v>
+        <v>55.41749999999998</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6605,7 +6765,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,22 +6782,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>54.9</v>
+        <v>54.91</v>
       </c>
       <c r="C167" t="n">
-        <v>54.78</v>
+        <v>54.77</v>
       </c>
       <c r="D167" t="n">
-        <v>54.9</v>
+        <v>54.91</v>
       </c>
       <c r="E167" t="n">
-        <v>54.78</v>
+        <v>54.77</v>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>3821.6948</v>
       </c>
       <c r="G167" t="n">
-        <v>55.41866666666665</v>
+        <v>55.42066666666664</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6644,7 +6806,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6662,16 +6826,16 @@
         <v>54.9</v>
       </c>
       <c r="C168" t="n">
-        <v>54.9</v>
+        <v>54.78</v>
       </c>
       <c r="D168" t="n">
         <v>54.9</v>
       </c>
       <c r="E168" t="n">
-        <v>54.9</v>
+        <v>54.78</v>
       </c>
       <c r="F168" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G168" t="n">
         <v>55.41866666666665</v>
@@ -6683,7 +6847,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6701,19 +6867,19 @@
         <v>54.9</v>
       </c>
       <c r="C169" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D169" t="n">
         <v>54.9</v>
       </c>
       <c r="E169" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="F169" t="n">
-        <v>12208.7506</v>
+        <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>55.41699999999998</v>
+        <v>55.41866666666665</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6722,7 +6888,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,22 +6905,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C170" t="n">
         <v>54.8</v>
       </c>
-      <c r="C170" t="n">
-        <v>54.5</v>
-      </c>
       <c r="D170" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E170" t="n">
         <v>54.8</v>
       </c>
-      <c r="E170" t="n">
-        <v>54.5</v>
-      </c>
       <c r="F170" t="n">
-        <v>8099.3323</v>
+        <v>12208.7506</v>
       </c>
       <c r="G170" t="n">
-        <v>55.41033333333331</v>
+        <v>55.41699999999998</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6761,7 +6929,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,22 +6946,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C171" t="n">
         <v>54.5</v>
       </c>
-      <c r="C171" t="n">
-        <v>54.25</v>
-      </c>
       <c r="D171" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E171" t="n">
         <v>54.5</v>
       </c>
-      <c r="E171" t="n">
-        <v>54.25</v>
-      </c>
       <c r="F171" t="n">
-        <v>5566.1237</v>
+        <v>8099.3323</v>
       </c>
       <c r="G171" t="n">
-        <v>55.41283333333331</v>
+        <v>55.41033333333331</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6800,7 +6970,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6815,22 +6987,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C172" t="n">
         <v>54.25</v>
       </c>
-      <c r="C172" t="n">
-        <v>54.21</v>
-      </c>
       <c r="D172" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E172" t="n">
         <v>54.25</v>
       </c>
-      <c r="E172" t="n">
-        <v>54.21</v>
-      </c>
       <c r="F172" t="n">
-        <v>19434.0542</v>
+        <v>5566.1237</v>
       </c>
       <c r="G172" t="n">
-        <v>55.41299999999998</v>
+        <v>55.41283333333331</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6839,7 +7011,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6857,19 +7031,19 @@
         <v>54.25</v>
       </c>
       <c r="C173" t="n">
-        <v>54.25</v>
+        <v>54.21</v>
       </c>
       <c r="D173" t="n">
         <v>54.25</v>
       </c>
       <c r="E173" t="n">
-        <v>54.25</v>
+        <v>54.21</v>
       </c>
       <c r="F173" t="n">
-        <v>26349.2313</v>
+        <v>19434.0542</v>
       </c>
       <c r="G173" t="n">
-        <v>55.41049999999998</v>
+        <v>55.41299999999998</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6878,7 +7052,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,22 +7069,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>54.5</v>
+        <v>54.25</v>
       </c>
       <c r="C174" t="n">
-        <v>54.6</v>
+        <v>54.25</v>
       </c>
       <c r="D174" t="n">
-        <v>54.6</v>
+        <v>54.25</v>
       </c>
       <c r="E174" t="n">
-        <v>54.5</v>
+        <v>54.25</v>
       </c>
       <c r="F174" t="n">
-        <v>13233.2534</v>
+        <v>26349.2313</v>
       </c>
       <c r="G174" t="n">
-        <v>55.41249999999998</v>
+        <v>55.41049999999998</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6917,7 +7093,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,22 +7110,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>54.3</v>
+        <v>54.5</v>
       </c>
       <c r="C175" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="D175" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="E175" t="n">
-        <v>54.3</v>
+        <v>54.5</v>
       </c>
       <c r="F175" t="n">
-        <v>11</v>
+        <v>13233.2534</v>
       </c>
       <c r="G175" t="n">
-        <v>55.40949999999998</v>
+        <v>55.41249999999998</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6956,7 +7134,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,22 +7151,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>54.6</v>
+        <v>54.3</v>
       </c>
       <c r="C176" t="n">
-        <v>55.45</v>
+        <v>54.3</v>
       </c>
       <c r="D176" t="n">
-        <v>55.45</v>
+        <v>54.3</v>
       </c>
       <c r="E176" t="n">
-        <v>54.6</v>
+        <v>54.3</v>
       </c>
       <c r="F176" t="n">
-        <v>676.878</v>
+        <v>11</v>
       </c>
       <c r="G176" t="n">
-        <v>55.42699999999998</v>
+        <v>55.40949999999998</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6995,7 +7175,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,22 +7192,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>54.94</v>
+        <v>54.6</v>
       </c>
       <c r="C177" t="n">
-        <v>54.94</v>
+        <v>55.45</v>
       </c>
       <c r="D177" t="n">
-        <v>54.94</v>
+        <v>55.45</v>
       </c>
       <c r="E177" t="n">
-        <v>54.94</v>
+        <v>54.6</v>
       </c>
       <c r="F177" t="n">
-        <v>10</v>
+        <v>676.878</v>
       </c>
       <c r="G177" t="n">
-        <v>55.43933333333332</v>
+        <v>55.42699999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7034,7 +7216,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7061,10 +7245,10 @@
         <v>54.94</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>55.45149999999998</v>
+        <v>55.43933333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7073,7 +7257,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,22 +7274,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>54.3</v>
+        <v>54.94</v>
       </c>
       <c r="C179" t="n">
-        <v>54.3</v>
+        <v>54.94</v>
       </c>
       <c r="D179" t="n">
-        <v>54.3</v>
+        <v>54.94</v>
       </c>
       <c r="E179" t="n">
-        <v>54.3</v>
+        <v>54.94</v>
       </c>
       <c r="F179" t="n">
-        <v>6329.2443</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>55.44166666666665</v>
+        <v>55.45149999999998</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7112,7 +7298,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,22 +7315,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>54.43</v>
+        <v>54.3</v>
       </c>
       <c r="C180" t="n">
         <v>54.3</v>
       </c>
       <c r="D180" t="n">
-        <v>54.43</v>
+        <v>54.3</v>
       </c>
       <c r="E180" t="n">
         <v>54.3</v>
       </c>
       <c r="F180" t="n">
-        <v>68521.1439</v>
+        <v>6329.2443</v>
       </c>
       <c r="G180" t="n">
-        <v>55.43183333333332</v>
+        <v>55.44166666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7151,7 +7339,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,22 +7356,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>54.3</v>
+        <v>54.43</v>
       </c>
       <c r="C181" t="n">
         <v>54.3</v>
       </c>
       <c r="D181" t="n">
-        <v>54.3</v>
+        <v>54.43</v>
       </c>
       <c r="E181" t="n">
         <v>54.3</v>
       </c>
       <c r="F181" t="n">
-        <v>4175.7589</v>
+        <v>68521.1439</v>
       </c>
       <c r="G181" t="n">
-        <v>55.422</v>
+        <v>55.43183333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7190,7 +7380,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,10 +7409,10 @@
         <v>54.3</v>
       </c>
       <c r="F182" t="n">
-        <v>2823.0364</v>
+        <v>4175.7589</v>
       </c>
       <c r="G182" t="n">
-        <v>55.41216666666666</v>
+        <v>55.422</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7229,7 +7421,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,22 +7438,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>54.23</v>
+        <v>54.3</v>
       </c>
       <c r="C183" t="n">
-        <v>54.23</v>
+        <v>54.3</v>
       </c>
       <c r="D183" t="n">
-        <v>54.23</v>
+        <v>54.3</v>
       </c>
       <c r="E183" t="n">
-        <v>54.23</v>
+        <v>54.3</v>
       </c>
       <c r="F183" t="n">
-        <v>1186.1625</v>
+        <v>2823.0364</v>
       </c>
       <c r="G183" t="n">
-        <v>55.40116666666667</v>
+        <v>55.41216666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7268,7 +7462,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7283,22 +7479,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>54.3</v>
+        <v>54.23</v>
       </c>
       <c r="C184" t="n">
-        <v>54.3</v>
+        <v>54.23</v>
       </c>
       <c r="D184" t="n">
-        <v>54.3</v>
+        <v>54.23</v>
       </c>
       <c r="E184" t="n">
-        <v>54.3</v>
+        <v>54.23</v>
       </c>
       <c r="F184" t="n">
-        <v>1271.8701</v>
+        <v>1186.1625</v>
       </c>
       <c r="G184" t="n">
-        <v>55.38933333333333</v>
+        <v>55.40116666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7307,7 +7503,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7322,22 +7520,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.89</v>
+        <v>54.3</v>
       </c>
       <c r="C185" t="n">
-        <v>54.9</v>
+        <v>54.3</v>
       </c>
       <c r="D185" t="n">
-        <v>54.9</v>
+        <v>54.3</v>
       </c>
       <c r="E185" t="n">
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="F185" t="n">
-        <v>6388.1325</v>
+        <v>1271.8701</v>
       </c>
       <c r="G185" t="n">
-        <v>55.38950000000001</v>
+        <v>55.38933333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7346,7 +7544,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,22 +7561,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>54.41</v>
+        <v>54.89</v>
       </c>
       <c r="C186" t="n">
-        <v>54.41</v>
+        <v>54.9</v>
       </c>
       <c r="D186" t="n">
-        <v>54.41</v>
+        <v>54.9</v>
       </c>
       <c r="E186" t="n">
-        <v>54.41</v>
+        <v>54.4</v>
       </c>
       <c r="F186" t="n">
-        <v>11</v>
+        <v>6388.1325</v>
       </c>
       <c r="G186" t="n">
-        <v>55.37033333333333</v>
+        <v>55.38950000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7385,7 +7585,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7400,22 +7602,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>54.4</v>
+        <v>54.41</v>
       </c>
       <c r="C187" t="n">
-        <v>54.4</v>
+        <v>54.41</v>
       </c>
       <c r="D187" t="n">
-        <v>54.4</v>
+        <v>54.41</v>
       </c>
       <c r="E187" t="n">
-        <v>54.4</v>
+        <v>54.41</v>
       </c>
       <c r="F187" t="n">
-        <v>1738.4958</v>
+        <v>11</v>
       </c>
       <c r="G187" t="n">
-        <v>55.35033333333334</v>
+        <v>55.37033333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7424,7 +7626,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7439,22 +7643,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>54.31</v>
+        <v>54.4</v>
       </c>
       <c r="C188" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="D188" t="n">
-        <v>54.31</v>
+        <v>54.4</v>
       </c>
       <c r="E188" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="F188" t="n">
-        <v>21935.3049</v>
+        <v>1738.4958</v>
       </c>
       <c r="G188" t="n">
-        <v>55.32700000000001</v>
+        <v>55.35033333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7463,7 +7667,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,22 +7684,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>54.36</v>
+        <v>54.31</v>
       </c>
       <c r="C189" t="n">
-        <v>54.36</v>
+        <v>54.3</v>
       </c>
       <c r="D189" t="n">
-        <v>54.36</v>
+        <v>54.31</v>
       </c>
       <c r="E189" t="n">
-        <v>54.36</v>
+        <v>54.3</v>
       </c>
       <c r="F189" t="n">
-        <v>10893.4089</v>
+        <v>21935.3049</v>
       </c>
       <c r="G189" t="n">
-        <v>55.29966666666668</v>
+        <v>55.32700000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7502,7 +7708,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7529,10 +7737,10 @@
         <v>54.36</v>
       </c>
       <c r="F190" t="n">
-        <v>132</v>
+        <v>10893.4089</v>
       </c>
       <c r="G190" t="n">
-        <v>55.27233333333335</v>
+        <v>55.29966666666668</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7541,7 +7749,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7568,10 +7778,10 @@
         <v>54.36</v>
       </c>
       <c r="F191" t="n">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="G191" t="n">
-        <v>55.24500000000002</v>
+        <v>55.27233333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7580,7 +7790,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,10 +7819,10 @@
         <v>54.36</v>
       </c>
       <c r="F192" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G192" t="n">
-        <v>55.20100000000002</v>
+        <v>55.24500000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7619,7 +7831,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,19 +7851,19 @@
         <v>54.36</v>
       </c>
       <c r="C193" t="n">
-        <v>54.37</v>
+        <v>54.36</v>
       </c>
       <c r="D193" t="n">
-        <v>54.37</v>
+        <v>54.36</v>
       </c>
       <c r="E193" t="n">
         <v>54.36</v>
       </c>
       <c r="F193" t="n">
-        <v>369.2446</v>
+        <v>44</v>
       </c>
       <c r="G193" t="n">
-        <v>55.15716666666669</v>
+        <v>55.20100000000002</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7658,7 +7872,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,10 +7889,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="C194" t="n">
         <v>54.37</v>
-      </c>
-      <c r="C194" t="n">
-        <v>54.36</v>
       </c>
       <c r="D194" t="n">
         <v>54.37</v>
@@ -7685,10 +7901,10 @@
         <v>54.36</v>
       </c>
       <c r="F194" t="n">
-        <v>10454.6048</v>
+        <v>369.2446</v>
       </c>
       <c r="G194" t="n">
-        <v>55.11333333333336</v>
+        <v>55.15716666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7697,7 +7913,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,19 +7933,19 @@
         <v>54.37</v>
       </c>
       <c r="C195" t="n">
-        <v>54.37</v>
+        <v>54.36</v>
       </c>
       <c r="D195" t="n">
         <v>54.37</v>
       </c>
       <c r="E195" t="n">
-        <v>54.37</v>
+        <v>54.36</v>
       </c>
       <c r="F195" t="n">
-        <v>55</v>
+        <v>10454.6048</v>
       </c>
       <c r="G195" t="n">
-        <v>55.08616666666669</v>
+        <v>55.11333333333336</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7736,7 +7954,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,22 +7971,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>54.36</v>
+        <v>54.37</v>
       </c>
       <c r="C196" t="n">
-        <v>54.31</v>
+        <v>54.37</v>
       </c>
       <c r="D196" t="n">
-        <v>54.36</v>
+        <v>54.37</v>
       </c>
       <c r="E196" t="n">
-        <v>54.31</v>
+        <v>54.37</v>
       </c>
       <c r="F196" t="n">
-        <v>10101.9724</v>
+        <v>55</v>
       </c>
       <c r="G196" t="n">
-        <v>55.07616666666669</v>
+        <v>55.08616666666669</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7775,7 +7995,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,22 +8012,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>54.31</v>
+        <v>54.36</v>
       </c>
       <c r="C197" t="n">
         <v>54.31</v>
       </c>
       <c r="D197" t="n">
-        <v>54.31</v>
+        <v>54.36</v>
       </c>
       <c r="E197" t="n">
         <v>54.31</v>
       </c>
       <c r="F197" t="n">
-        <v>43043.2042</v>
+        <v>10101.9724</v>
       </c>
       <c r="G197" t="n">
-        <v>55.0661666666667</v>
+        <v>55.07616666666669</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7814,7 +8036,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7835,16 +8059,16 @@
         <v>54.31</v>
       </c>
       <c r="D198" t="n">
-        <v>54.32</v>
+        <v>54.31</v>
       </c>
       <c r="E198" t="n">
         <v>54.31</v>
       </c>
       <c r="F198" t="n">
-        <v>72268.66899999999</v>
+        <v>43043.2042</v>
       </c>
       <c r="G198" t="n">
-        <v>55.0561666666667</v>
+        <v>55.0661666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7853,7 +8077,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7871,19 +8097,19 @@
         <v>54.31</v>
       </c>
       <c r="C199" t="n">
-        <v>53.46</v>
+        <v>54.31</v>
       </c>
       <c r="D199" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="E199" t="n">
         <v>54.31</v>
       </c>
-      <c r="E199" t="n">
-        <v>53.46</v>
-      </c>
       <c r="F199" t="n">
-        <v>107705.4567</v>
+        <v>72268.66899999999</v>
       </c>
       <c r="G199" t="n">
-        <v>55.03200000000003</v>
+        <v>55.0561666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7892,7 +8118,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,22 +8135,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>54.31</v>
+      </c>
+      <c r="C200" t="n">
         <v>53.46</v>
       </c>
-      <c r="C200" t="n">
-        <v>53.45</v>
-      </c>
       <c r="D200" t="n">
+        <v>54.31</v>
+      </c>
+      <c r="E200" t="n">
         <v>53.46</v>
       </c>
-      <c r="E200" t="n">
-        <v>53.45</v>
-      </c>
       <c r="F200" t="n">
-        <v>70945.4065</v>
+        <v>107705.4567</v>
       </c>
       <c r="G200" t="n">
-        <v>55.0076666666667</v>
+        <v>55.03200000000003</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7931,7 +8159,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7949,19 +8179,19 @@
         <v>53.46</v>
       </c>
       <c r="C201" t="n">
-        <v>54.23</v>
+        <v>53.45</v>
       </c>
       <c r="D201" t="n">
-        <v>54.23</v>
+        <v>53.46</v>
       </c>
       <c r="E201" t="n">
-        <v>53.46</v>
+        <v>53.45</v>
       </c>
       <c r="F201" t="n">
-        <v>125.1277</v>
+        <v>70945.4065</v>
       </c>
       <c r="G201" t="n">
-        <v>54.99633333333337</v>
+        <v>55.0076666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7970,7 +8200,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7985,22 +8217,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>54.44</v>
+        <v>53.46</v>
       </c>
       <c r="C202" t="n">
-        <v>54.44</v>
+        <v>54.23</v>
       </c>
       <c r="D202" t="n">
-        <v>54.44</v>
+        <v>54.23</v>
       </c>
       <c r="E202" t="n">
-        <v>54.44</v>
+        <v>53.46</v>
       </c>
       <c r="F202" t="n">
-        <v>24.5897</v>
+        <v>125.1277</v>
       </c>
       <c r="G202" t="n">
-        <v>54.93933333333337</v>
+        <v>54.99633333333337</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8009,7 +8241,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,22 +8258,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>54.29</v>
+        <v>54.44</v>
       </c>
       <c r="C203" t="n">
-        <v>54.29</v>
+        <v>54.44</v>
       </c>
       <c r="D203" t="n">
-        <v>54.29</v>
+        <v>54.44</v>
       </c>
       <c r="E203" t="n">
-        <v>54.29</v>
+        <v>54.44</v>
       </c>
       <c r="F203" t="n">
-        <v>5829.7804</v>
+        <v>24.5897</v>
       </c>
       <c r="G203" t="n">
-        <v>54.88133333333337</v>
+        <v>54.93933333333337</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8048,7 +8282,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,22 +8299,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>53.53</v>
+        <v>54.29</v>
       </c>
       <c r="C204" t="n">
-        <v>53.53</v>
+        <v>54.29</v>
       </c>
       <c r="D204" t="n">
-        <v>53.53</v>
+        <v>54.29</v>
       </c>
       <c r="E204" t="n">
-        <v>53.53</v>
+        <v>54.29</v>
       </c>
       <c r="F204" t="n">
-        <v>2974.0218</v>
+        <v>5829.7804</v>
       </c>
       <c r="G204" t="n">
-        <v>54.81066666666671</v>
+        <v>54.88133333333337</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8087,7 +8323,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,22 +8340,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>53.71</v>
+        <v>53.53</v>
       </c>
       <c r="C205" t="n">
-        <v>53.6</v>
+        <v>53.53</v>
       </c>
       <c r="D205" t="n">
-        <v>53.71</v>
+        <v>53.53</v>
       </c>
       <c r="E205" t="n">
-        <v>53.6</v>
+        <v>53.53</v>
       </c>
       <c r="F205" t="n">
-        <v>1157.7893</v>
+        <v>2974.0218</v>
       </c>
       <c r="G205" t="n">
-        <v>54.7771666666667</v>
+        <v>54.81066666666671</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8126,7 +8364,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,22 +8381,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>54.04</v>
+        <v>53.71</v>
       </c>
       <c r="C206" t="n">
-        <v>54.04</v>
+        <v>53.6</v>
       </c>
       <c r="D206" t="n">
-        <v>54.04</v>
+        <v>53.71</v>
       </c>
       <c r="E206" t="n">
-        <v>54.04</v>
+        <v>53.6</v>
       </c>
       <c r="F206" t="n">
-        <v>3020.811</v>
+        <v>1157.7893</v>
       </c>
       <c r="G206" t="n">
-        <v>54.72100000000003</v>
+        <v>54.7771666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8165,7 +8405,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,22 +8422,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>54.17</v>
+        <v>54.04</v>
       </c>
       <c r="C207" t="n">
-        <v>54.17</v>
+        <v>54.04</v>
       </c>
       <c r="D207" t="n">
-        <v>54.17</v>
+        <v>54.04</v>
       </c>
       <c r="E207" t="n">
-        <v>54.17</v>
+        <v>54.04</v>
       </c>
       <c r="F207" t="n">
-        <v>581.8142</v>
+        <v>3020.811</v>
       </c>
       <c r="G207" t="n">
-        <v>54.66850000000003</v>
+        <v>54.72100000000003</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8204,7 +8446,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,22 +8463,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>54.05</v>
+        <v>54.17</v>
       </c>
       <c r="C208" t="n">
-        <v>54.04</v>
+        <v>54.17</v>
       </c>
       <c r="D208" t="n">
-        <v>54.05</v>
+        <v>54.17</v>
       </c>
       <c r="E208" t="n">
-        <v>54.04</v>
+        <v>54.17</v>
       </c>
       <c r="F208" t="n">
-        <v>999</v>
+        <v>581.8142</v>
       </c>
       <c r="G208" t="n">
-        <v>54.65650000000003</v>
+        <v>54.66850000000003</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8243,7 +8487,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,22 +8504,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>54.17</v>
+        <v>54.05</v>
       </c>
       <c r="C209" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="D209" t="n">
         <v>54.05</v>
       </c>
-      <c r="D209" t="n">
-        <v>54.43</v>
-      </c>
       <c r="E209" t="n">
-        <v>54.05</v>
+        <v>54.04</v>
       </c>
       <c r="F209" t="n">
-        <v>6466.7178</v>
+        <v>999</v>
       </c>
       <c r="G209" t="n">
-        <v>54.61050000000003</v>
+        <v>54.65650000000003</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8282,7 +8528,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,22 +8545,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>54.04</v>
+        <v>54.17</v>
       </c>
       <c r="C210" t="n">
-        <v>54.04</v>
+        <v>54.05</v>
       </c>
       <c r="D210" t="n">
-        <v>54.04</v>
+        <v>54.43</v>
       </c>
       <c r="E210" t="n">
-        <v>54.04</v>
+        <v>54.05</v>
       </c>
       <c r="F210" t="n">
-        <v>12817.9914</v>
+        <v>6466.7178</v>
       </c>
       <c r="G210" t="n">
-        <v>54.5661666666667</v>
+        <v>54.61050000000003</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8321,7 +8569,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,19 +8589,19 @@
         <v>54.04</v>
       </c>
       <c r="C211" t="n">
-        <v>53.45</v>
+        <v>54.04</v>
       </c>
       <c r="D211" t="n">
         <v>54.04</v>
       </c>
       <c r="E211" t="n">
-        <v>53.45</v>
+        <v>54.04</v>
       </c>
       <c r="F211" t="n">
-        <v>58572.8939</v>
+        <v>12817.9914</v>
       </c>
       <c r="G211" t="n">
-        <v>54.53983333333336</v>
+        <v>54.5661666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8360,7 +8610,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,22 +8627,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>54.44</v>
+        <v>54.04</v>
       </c>
       <c r="C212" t="n">
-        <v>54.44</v>
+        <v>53.45</v>
       </c>
       <c r="D212" t="n">
-        <v>54.44</v>
+        <v>54.04</v>
       </c>
       <c r="E212" t="n">
-        <v>54.44</v>
+        <v>53.45</v>
       </c>
       <c r="F212" t="n">
-        <v>74.42019999999999</v>
+        <v>58572.8939</v>
       </c>
       <c r="G212" t="n">
-        <v>54.53050000000003</v>
+        <v>54.53983333333336</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8399,7 +8651,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8414,22 +8668,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>53.58</v>
+        <v>54.44</v>
       </c>
       <c r="C213" t="n">
-        <v>53.46</v>
+        <v>54.44</v>
       </c>
       <c r="D213" t="n">
-        <v>53.58</v>
+        <v>54.44</v>
       </c>
       <c r="E213" t="n">
-        <v>53.46</v>
+        <v>54.44</v>
       </c>
       <c r="F213" t="n">
-        <v>8927.361999999999</v>
+        <v>74.42019999999999</v>
       </c>
       <c r="G213" t="n">
-        <v>54.49000000000003</v>
+        <v>54.53050000000003</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8438,7 +8692,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,22 +8709,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>53.47</v>
+        <v>53.58</v>
       </c>
       <c r="C214" t="n">
         <v>53.46</v>
       </c>
       <c r="D214" t="n">
-        <v>53.47</v>
+        <v>53.58</v>
       </c>
       <c r="E214" t="n">
         <v>53.46</v>
       </c>
       <c r="F214" t="n">
-        <v>19324.3318</v>
+        <v>8927.361999999999</v>
       </c>
       <c r="G214" t="n">
-        <v>54.44950000000004</v>
+        <v>54.49000000000003</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8477,7 +8733,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8492,22 +8750,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="C215" t="n">
         <v>53.46</v>
       </c>
-      <c r="C215" t="n">
-        <v>53.45</v>
-      </c>
       <c r="D215" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="E215" t="n">
         <v>53.46</v>
       </c>
-      <c r="E215" t="n">
-        <v>53.45</v>
-      </c>
       <c r="F215" t="n">
-        <v>30074.411</v>
+        <v>19324.3318</v>
       </c>
       <c r="G215" t="n">
-        <v>54.40883333333337</v>
+        <v>54.44950000000004</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8516,7 +8774,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,19 +8794,19 @@
         <v>53.46</v>
       </c>
       <c r="C216" t="n">
-        <v>53.1</v>
+        <v>53.45</v>
       </c>
       <c r="D216" t="n">
         <v>53.46</v>
       </c>
       <c r="E216" t="n">
-        <v>53.1</v>
+        <v>53.45</v>
       </c>
       <c r="F216" t="n">
-        <v>33761.4277</v>
+        <v>30074.411</v>
       </c>
       <c r="G216" t="n">
-        <v>54.3771666666667</v>
+        <v>54.40883333333337</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8555,7 +8815,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,22 +8832,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>53.12</v>
+        <v>53.46</v>
       </c>
       <c r="C217" t="n">
-        <v>53.12</v>
+        <v>53.1</v>
       </c>
       <c r="D217" t="n">
-        <v>53.12</v>
+        <v>53.46</v>
       </c>
       <c r="E217" t="n">
-        <v>53.12</v>
+        <v>53.1</v>
       </c>
       <c r="F217" t="n">
-        <v>15761.4533</v>
+        <v>33761.4277</v>
       </c>
       <c r="G217" t="n">
-        <v>54.32933333333337</v>
+        <v>54.3771666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8594,7 +8856,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8609,22 +8873,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>54.2</v>
+        <v>53.12</v>
       </c>
       <c r="C218" t="n">
-        <v>54.2</v>
+        <v>53.12</v>
       </c>
       <c r="D218" t="n">
-        <v>54.2</v>
+        <v>53.12</v>
       </c>
       <c r="E218" t="n">
-        <v>54.2</v>
+        <v>53.12</v>
       </c>
       <c r="F218" t="n">
-        <v>11</v>
+        <v>15761.4533</v>
       </c>
       <c r="G218" t="n">
-        <v>54.31750000000003</v>
+        <v>54.32933333333337</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8633,7 +8897,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,22 +8914,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>53.12</v>
+        <v>54.2</v>
       </c>
       <c r="C219" t="n">
-        <v>53.11</v>
+        <v>54.2</v>
       </c>
       <c r="D219" t="n">
-        <v>53.12</v>
+        <v>54.2</v>
       </c>
       <c r="E219" t="n">
-        <v>53.11</v>
+        <v>54.2</v>
       </c>
       <c r="F219" t="n">
-        <v>9918.958199999999</v>
+        <v>11</v>
       </c>
       <c r="G219" t="n">
-        <v>54.2876666666667</v>
+        <v>54.31750000000003</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8672,7 +8938,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8687,22 +8955,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>53.1</v>
+        <v>53.12</v>
       </c>
       <c r="C220" t="n">
-        <v>53.12</v>
+        <v>53.11</v>
       </c>
       <c r="D220" t="n">
         <v>53.12</v>
       </c>
       <c r="E220" t="n">
-        <v>53.07</v>
+        <v>53.11</v>
       </c>
       <c r="F220" t="n">
-        <v>5520.2212</v>
+        <v>9918.958199999999</v>
       </c>
       <c r="G220" t="n">
-        <v>54.25783333333337</v>
+        <v>54.2876666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8711,7 +8979,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8726,22 +8996,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>53.79</v>
+        <v>53.1</v>
       </c>
       <c r="C221" t="n">
-        <v>53.79</v>
+        <v>53.12</v>
       </c>
       <c r="D221" t="n">
-        <v>53.79</v>
+        <v>53.12</v>
       </c>
       <c r="E221" t="n">
-        <v>53.79</v>
+        <v>53.07</v>
       </c>
       <c r="F221" t="n">
-        <v>4467.447</v>
+        <v>5520.2212</v>
       </c>
       <c r="G221" t="n">
-        <v>54.24150000000004</v>
+        <v>54.25783333333337</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8750,7 +9020,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8765,22 +9037,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>53.9</v>
+        <v>53.79</v>
       </c>
       <c r="C222" t="n">
-        <v>53.95</v>
+        <v>53.79</v>
       </c>
       <c r="D222" t="n">
-        <v>53.95</v>
+        <v>53.79</v>
       </c>
       <c r="E222" t="n">
-        <v>53.9</v>
+        <v>53.79</v>
       </c>
       <c r="F222" t="n">
-        <v>55869.8993</v>
+        <v>4467.447</v>
       </c>
       <c r="G222" t="n">
-        <v>54.22766666666669</v>
+        <v>54.24150000000004</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8789,7 +9061,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8804,7 +9078,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>53.95</v>
+        <v>53.9</v>
       </c>
       <c r="C223" t="n">
         <v>53.95</v>
@@ -8813,13 +9087,13 @@
         <v>53.95</v>
       </c>
       <c r="E223" t="n">
-        <v>53.95</v>
+        <v>53.9</v>
       </c>
       <c r="F223" t="n">
-        <v>15888.9841</v>
+        <v>55869.8993</v>
       </c>
       <c r="G223" t="n">
-        <v>54.21166666666669</v>
+        <v>54.22766666666669</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8828,7 +9102,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8843,22 +9119,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>54.19</v>
+        <v>53.95</v>
       </c>
       <c r="C224" t="n">
-        <v>54.19</v>
+        <v>53.95</v>
       </c>
       <c r="D224" t="n">
-        <v>54.19</v>
+        <v>53.95</v>
       </c>
       <c r="E224" t="n">
-        <v>54.19</v>
+        <v>53.95</v>
       </c>
       <c r="F224" t="n">
-        <v>3439.4178</v>
+        <v>15888.9841</v>
       </c>
       <c r="G224" t="n">
-        <v>54.18233333333337</v>
+        <v>54.21166666666669</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8867,7 +9143,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,22 +9160,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>54.18</v>
+        <v>54.19</v>
       </c>
       <c r="C225" t="n">
-        <v>54.18</v>
+        <v>54.19</v>
       </c>
       <c r="D225" t="n">
         <v>54.19</v>
       </c>
       <c r="E225" t="n">
-        <v>54.18</v>
+        <v>54.19</v>
       </c>
       <c r="F225" t="n">
-        <v>33004.60336065695</v>
+        <v>3439.4178</v>
       </c>
       <c r="G225" t="n">
-        <v>54.1701666666667</v>
+        <v>54.18233333333337</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8906,7 +9184,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,22 +9201,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="C226" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="D226" t="n">
         <v>54.19</v>
       </c>
-      <c r="C226" t="n">
-        <v>55.87</v>
-      </c>
-      <c r="D226" t="n">
-        <v>57.87</v>
-      </c>
       <c r="E226" t="n">
-        <v>54.19</v>
+        <v>54.18</v>
       </c>
       <c r="F226" t="n">
-        <v>23948.34252966619</v>
+        <v>33004.60336065695</v>
       </c>
       <c r="G226" t="n">
-        <v>54.18850000000003</v>
+        <v>54.1701666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8945,7 +9225,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,22 +9242,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>56.01</v>
+        <v>54.19</v>
       </c>
       <c r="C227" t="n">
-        <v>57.86</v>
+        <v>55.87</v>
       </c>
       <c r="D227" t="n">
-        <v>57.86</v>
+        <v>57.87</v>
       </c>
       <c r="E227" t="n">
-        <v>56</v>
+        <v>54.19</v>
       </c>
       <c r="F227" t="n">
-        <v>13165.0278</v>
+        <v>23948.34252966619</v>
       </c>
       <c r="G227" t="n">
-        <v>54.23983333333336</v>
+        <v>54.18850000000003</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8984,7 +9266,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8999,22 +9283,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>57.79</v>
+        <v>56.01</v>
       </c>
       <c r="C228" t="n">
-        <v>57.79</v>
+        <v>57.86</v>
       </c>
       <c r="D228" t="n">
-        <v>57.79</v>
+        <v>57.86</v>
       </c>
       <c r="E228" t="n">
-        <v>57.79</v>
+        <v>56</v>
       </c>
       <c r="F228" t="n">
-        <v>1294.0314</v>
+        <v>13165.0278</v>
       </c>
       <c r="G228" t="n">
-        <v>54.28800000000003</v>
+        <v>54.23983333333336</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9023,7 +9307,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,19 +9327,19 @@
         <v>57.79</v>
       </c>
       <c r="C229" t="n">
-        <v>57.87</v>
+        <v>57.79</v>
       </c>
       <c r="D229" t="n">
-        <v>57.87</v>
+        <v>57.79</v>
       </c>
       <c r="E229" t="n">
-        <v>57.68</v>
+        <v>57.79</v>
       </c>
       <c r="F229" t="n">
-        <v>6449.865743126134</v>
+        <v>1294.0314</v>
       </c>
       <c r="G229" t="n">
-        <v>54.33916666666669</v>
+        <v>54.28800000000003</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9062,7 +9348,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9077,22 +9365,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="C230" t="n">
         <v>57.87</v>
       </c>
-      <c r="C230" t="n">
-        <v>60.95</v>
-      </c>
       <c r="D230" t="n">
-        <v>60.95</v>
+        <v>57.87</v>
       </c>
       <c r="E230" t="n">
-        <v>57.87</v>
+        <v>57.68</v>
       </c>
       <c r="F230" t="n">
-        <v>107945.6360665507</v>
+        <v>6449.865743126134</v>
       </c>
       <c r="G230" t="n">
-        <v>54.44666666666669</v>
+        <v>54.33916666666669</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9101,7 +9389,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,22 +9406,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>57.87</v>
+      </c>
+      <c r="C231" t="n">
         <v>60.95</v>
-      </c>
-      <c r="C231" t="n">
-        <v>60.9</v>
       </c>
       <c r="D231" t="n">
         <v>60.95</v>
       </c>
       <c r="E231" t="n">
-        <v>57.88</v>
+        <v>57.87</v>
       </c>
       <c r="F231" t="n">
-        <v>131999.1939068089</v>
+        <v>107945.6360665507</v>
       </c>
       <c r="G231" t="n">
-        <v>54.55750000000002</v>
+        <v>54.44666666666669</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9140,7 +9430,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,59 +9447,63 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>58.5</v>
+        <v>60.95</v>
       </c>
       <c r="C232" t="n">
-        <v>60</v>
+        <v>60.9</v>
       </c>
       <c r="D232" t="n">
-        <v>60</v>
+        <v>60.95</v>
       </c>
       <c r="E232" t="n">
-        <v>57.89</v>
+        <v>57.88</v>
       </c>
       <c r="F232" t="n">
-        <v>42047.453</v>
+        <v>131999.1939068089</v>
       </c>
       <c r="G232" t="n">
-        <v>54.65400000000002</v>
+        <v>54.55750000000002</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M232" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>58.01</v>
+        <v>58.5</v>
       </c>
       <c r="C233" t="n">
-        <v>57.71</v>
+        <v>60</v>
       </c>
       <c r="D233" t="n">
-        <v>58.01</v>
+        <v>60</v>
       </c>
       <c r="E233" t="n">
-        <v>57.71</v>
+        <v>57.89</v>
       </c>
       <c r="F233" t="n">
-        <v>56711.7592557579</v>
+        <v>42047.453</v>
       </c>
       <c r="G233" t="n">
-        <v>54.71166666666669</v>
+        <v>54.65400000000002</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9216,10 +9512,16 @@
         <v>1</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M233" t="n">
-        <v>1</v>
+        <v>1.124943502824859</v>
       </c>
     </row>
     <row r="234">
@@ -9227,22 +9529,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="C234" t="n">
         <v>57.71</v>
       </c>
-      <c r="C234" t="n">
-        <v>56.03</v>
-      </c>
       <c r="D234" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="E234" t="n">
         <v>57.71</v>
       </c>
-      <c r="E234" t="n">
-        <v>56.03</v>
-      </c>
       <c r="F234" t="n">
-        <v>3279.8254</v>
+        <v>56711.7592557579</v>
       </c>
       <c r="G234" t="n">
-        <v>54.73550000000002</v>
+        <v>54.71166666666669</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9262,22 +9564,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>56.23</v>
+        <v>57.71</v>
       </c>
       <c r="C235" t="n">
-        <v>58.71</v>
+        <v>56.03</v>
       </c>
       <c r="D235" t="n">
-        <v>60.8</v>
+        <v>57.71</v>
       </c>
       <c r="E235" t="n">
-        <v>56.23</v>
+        <v>56.03</v>
       </c>
       <c r="F235" t="n">
-        <v>2487.905305944473</v>
+        <v>3279.8254</v>
       </c>
       <c r="G235" t="n">
-        <v>54.80900000000002</v>
+        <v>54.73550000000002</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9297,22 +9599,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="C236" t="n">
         <v>58.71</v>
-      </c>
-      <c r="C236" t="n">
-        <v>60.8</v>
       </c>
       <c r="D236" t="n">
         <v>60.8</v>
       </c>
       <c r="E236" t="n">
-        <v>58.71</v>
+        <v>56.23</v>
       </c>
       <c r="F236" t="n">
-        <v>7125.8162</v>
+        <v>2487.905305944473</v>
       </c>
       <c r="G236" t="n">
-        <v>54.8981666666667</v>
+        <v>54.80900000000002</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9327,6 +9629,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="C237" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D237" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="E237" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7125.8162</v>
+      </c>
+      <c r="G237" t="n">
+        <v>54.8981666666667</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest WOM.xlsx
+++ b/BackTest/2020-01-11 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
+        <v>54.46533333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>55.83800000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>61.3881</v>
       </c>
       <c r="G3" t="n">
+        <v>54.56533333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>55.7341666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>39596.1381</v>
       </c>
       <c r="G4" t="n">
+        <v>54.59799999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>55.6556666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5353.093487957181</v>
       </c>
       <c r="G5" t="n">
+        <v>54.79466666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>55.6181666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3776.6042</v>
       </c>
       <c r="G6" t="n">
+        <v>54.72199999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>55.5446666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>9</v>
       </c>
       <c r="G7" t="n">
+        <v>54.90466666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>55.5061666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2082</v>
       </c>
       <c r="G8" t="n">
+        <v>54.87133333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>55.46750000000004</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3579.738679076428</v>
       </c>
       <c r="G9" t="n">
+        <v>55.05066666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>55.38700000000004</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>9398.847299999999</v>
       </c>
       <c r="G10" t="n">
+        <v>55.08133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>55.26916666666671</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>9</v>
       </c>
       <c r="G11" t="n">
+        <v>55.20733333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>55.17933333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>8433.076999999999</v>
       </c>
       <c r="G12" t="n">
+        <v>55.15466666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>55.12100000000004</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1561.4594</v>
       </c>
       <c r="G13" t="n">
+        <v>55.10133333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>55.05266666666671</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>46.5737</v>
       </c>
       <c r="G14" t="n">
+        <v>54.96133333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>54.96616666666672</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>9233.83172231631</v>
       </c>
       <c r="G15" t="n">
+        <v>54.842</v>
+      </c>
+      <c r="H15" t="n">
         <v>54.89450000000006</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>333.7683</v>
       </c>
       <c r="G16" t="n">
+        <v>54.80266666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>54.81950000000005</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1367.8576</v>
       </c>
       <c r="G17" t="n">
+        <v>54.67066666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>54.74800000000005</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>9</v>
       </c>
       <c r="G18" t="n">
+        <v>54.836</v>
+      </c>
+      <c r="H18" t="n">
         <v>54.72750000000006</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>9430.627399999999</v>
       </c>
       <c r="G19" t="n">
+        <v>55.06266666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>54.70750000000006</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>9400.224899999999</v>
       </c>
       <c r="G20" t="n">
+        <v>54.93933333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>54.65650000000005</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
+        <v>54.96600000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>54.60550000000004</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>511.31</v>
       </c>
       <c r="G22" t="n">
+        <v>54.84000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>54.55116666666671</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>50881.07728730106</v>
       </c>
       <c r="G23" t="n">
+        <v>55.17733333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>54.6126666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>189.12</v>
       </c>
       <c r="G24" t="n">
+        <v>55.08600000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>54.5666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>360.3896</v>
       </c>
       <c r="G25" t="n">
+        <v>55.14400000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>54.52083333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1752.4269</v>
       </c>
       <c r="G26" t="n">
+        <v>55.07733333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>54.47750000000003</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
+        <v>55.21000000000002</v>
+      </c>
+      <c r="H27" t="n">
         <v>54.48883333333336</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>110</v>
       </c>
       <c r="G28" t="n">
+        <v>55.13133333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>54.44533333333336</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>3369.6021</v>
       </c>
       <c r="G29" t="n">
+        <v>55.21133333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>54.42333333333336</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>150.7981</v>
       </c>
       <c r="G30" t="n">
+        <v>55.38333333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>54.42950000000003</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>3500</v>
       </c>
       <c r="G31" t="n">
+        <v>55.46266666666669</v>
+      </c>
+      <c r="H31" t="n">
         <v>54.49783333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>15090.1168</v>
       </c>
       <c r="G32" t="n">
+        <v>55.53533333333336</v>
+      </c>
+      <c r="H32" t="n">
         <v>54.56400000000003</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>617.7512</v>
       </c>
       <c r="G33" t="n">
+        <v>55.51600000000003</v>
+      </c>
+      <c r="H33" t="n">
         <v>54.65616666666669</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>91882.6976</v>
       </c>
       <c r="G34" t="n">
+        <v>55.29933333333337</v>
+      </c>
+      <c r="H34" t="n">
         <v>54.6916666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1055.6621</v>
       </c>
       <c r="G35" t="n">
+        <v>55.26800000000003</v>
+      </c>
+      <c r="H35" t="n">
         <v>54.6796666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>5291.6374</v>
       </c>
       <c r="G36" t="n">
+        <v>55.25533333333336</v>
+      </c>
+      <c r="H36" t="n">
         <v>54.63500000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>139.5334</v>
       </c>
       <c r="G37" t="n">
+        <v>55.3686666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>54.6616666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1055.6621</v>
       </c>
       <c r="G38" t="n">
+        <v>54.91600000000003</v>
+      </c>
+      <c r="H38" t="n">
         <v>54.6916666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>22067</v>
       </c>
       <c r="G39" t="n">
+        <v>54.88533333333336</v>
+      </c>
+      <c r="H39" t="n">
         <v>54.71983333333336</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>218</v>
       </c>
       <c r="G40" t="n">
+        <v>54.85866666666669</v>
+      </c>
+      <c r="H40" t="n">
         <v>54.67416666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>13935.1336</v>
       </c>
       <c r="G41" t="n">
+        <v>54.85800000000003</v>
+      </c>
+      <c r="H41" t="n">
         <v>54.69900000000003</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>633.3243</v>
       </c>
       <c r="G42" t="n">
+        <v>54.69866666666669</v>
+      </c>
+      <c r="H42" t="n">
         <v>54.72566666666669</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>6299.504</v>
       </c>
       <c r="G43" t="n">
+        <v>54.72466666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>54.74566666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>15645.1894</v>
       </c>
       <c r="G44" t="n">
+        <v>54.65866666666669</v>
+      </c>
+      <c r="H44" t="n">
         <v>54.71916666666669</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>10045.05</v>
       </c>
       <c r="G45" t="n">
+        <v>54.46200000000002</v>
+      </c>
+      <c r="H45" t="n">
         <v>54.72316666666669</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>30000</v>
       </c>
       <c r="G46" t="n">
+        <v>54.37133333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>54.72883333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>70018.802</v>
       </c>
       <c r="G47" t="n">
+        <v>54.25733333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>54.73216666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>65329.8052</v>
       </c>
       <c r="G48" t="n">
+        <v>54.03133333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>54.73716666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>6199.5779</v>
       </c>
       <c r="G49" t="n">
+        <v>53.99933333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>54.73983333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>696</v>
       </c>
       <c r="G50" t="n">
+        <v>53.97066666666668</v>
+      </c>
+      <c r="H50" t="n">
         <v>54.74316666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5445.4101</v>
       </c>
       <c r="G51" t="n">
+        <v>53.91333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>54.71416666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>155089.4826</v>
       </c>
       <c r="G52" t="n">
+        <v>53.70933333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>54.70566666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>7103.964862430939</v>
       </c>
       <c r="G53" t="n">
+        <v>53.71866666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>54.67083333333336</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>817</v>
       </c>
       <c r="G54" t="n">
+        <v>53.72266666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>54.6861666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>276</v>
       </c>
       <c r="G55" t="n">
+        <v>53.71600000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>54.70000000000003</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>11464.379</v>
       </c>
       <c r="G56" t="n">
+        <v>53.62666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>54.69233333333337</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1393.5058</v>
       </c>
       <c r="G57" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="H57" t="n">
         <v>54.64833333333336</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1689.9725</v>
       </c>
       <c r="G58" t="n">
+        <v>53.52933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>54.6216666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>40862.2969</v>
       </c>
       <c r="G59" t="n">
+        <v>53.462</v>
+      </c>
+      <c r="H59" t="n">
         <v>54.57333333333337</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>42.2535</v>
       </c>
       <c r="G60" t="n">
+        <v>53.41333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>54.5251666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3390</v>
       </c>
       <c r="G61" t="n">
+        <v>53.37066666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>54.50183333333337</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2974.3601</v>
       </c>
       <c r="G62" t="n">
+        <v>53.39666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>54.46500000000003</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>3200</v>
       </c>
       <c r="G63" t="n">
+        <v>53.42266666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>54.45150000000003</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>537.6534</v>
       </c>
       <c r="G64" t="n">
+        <v>53.46866666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>54.45750000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>14926.4576</v>
       </c>
       <c r="G65" t="n">
+        <v>53.45066666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>54.4071666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>16112.2843</v>
       </c>
       <c r="G66" t="n">
+        <v>53.44066666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>54.39383333333337</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1000</v>
       </c>
       <c r="G67" t="n">
+        <v>53.47133333333336</v>
+      </c>
+      <c r="H67" t="n">
         <v>54.34733333333337</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>7096.0275</v>
       </c>
       <c r="G68" t="n">
+        <v>53.39733333333335</v>
+      </c>
+      <c r="H68" t="n">
         <v>54.30233333333337</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>836.3693</v>
       </c>
       <c r="G69" t="n">
+        <v>53.33066666666669</v>
+      </c>
+      <c r="H69" t="n">
         <v>54.2561666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>843.9557</v>
       </c>
       <c r="G70" t="n">
+        <v>53.27066666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>54.24733333333337</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,22 +3075,21 @@
         <v>98.6138</v>
       </c>
       <c r="G71" t="n">
+        <v>53.26800000000002</v>
+      </c>
+      <c r="H71" t="n">
         <v>54.20750000000003</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,24 +3113,21 @@
         <v>22878.1392</v>
       </c>
       <c r="G72" t="n">
+        <v>53.26466666666669</v>
+      </c>
+      <c r="H72" t="n">
         <v>54.17583333333337</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,24 +3151,21 @@
         <v>117.0853</v>
       </c>
       <c r="G73" t="n">
+        <v>53.19200000000002</v>
+      </c>
+      <c r="H73" t="n">
         <v>54.14433333333337</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,24 +3189,21 @@
         <v>12434.6062</v>
       </c>
       <c r="G74" t="n">
+        <v>53.23200000000002</v>
+      </c>
+      <c r="H74" t="n">
         <v>54.14100000000003</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3025,24 +3227,21 @@
         <v>2107.6455</v>
       </c>
       <c r="G75" t="n">
+        <v>53.27133333333336</v>
+      </c>
+      <c r="H75" t="n">
         <v>54.13250000000003</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,24 +3265,21 @@
         <v>14.5753</v>
       </c>
       <c r="G76" t="n">
+        <v>53.27266666666669</v>
+      </c>
+      <c r="H76" t="n">
         <v>54.11933333333336</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,24 +3303,21 @@
         <v>58.4245</v>
       </c>
       <c r="G77" t="n">
+        <v>53.27866666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>54.11700000000003</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,24 +3341,21 @@
         <v>26.2817</v>
       </c>
       <c r="G78" t="n">
+        <v>53.28466666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>54.0636666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3189,24 +3379,21 @@
         <v>5578.281889178133</v>
       </c>
       <c r="G79" t="n">
+        <v>53.27933333333335</v>
+      </c>
+      <c r="H79" t="n">
         <v>54.0116666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,24 +3417,21 @@
         <v>27.79843808107103</v>
       </c>
       <c r="G80" t="n">
+        <v>53.32933333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>54.00466666666671</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3271,24 +3455,21 @@
         <v>27.7984</v>
       </c>
       <c r="G81" t="n">
+        <v>53.34333333333335</v>
+      </c>
+      <c r="H81" t="n">
         <v>53.98816666666671</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,24 +3493,21 @@
         <v>18263.9215</v>
       </c>
       <c r="G82" t="n">
+        <v>53.34600000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>53.97383333333337</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,24 +3531,21 @@
         <v>7356.636</v>
       </c>
       <c r="G83" t="n">
+        <v>53.35333333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>53.84633333333338</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,24 +3569,21 @@
         <v>76557.57919999999</v>
       </c>
       <c r="G84" t="n">
+        <v>53.36000000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>53.82466666666672</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3435,24 +3607,21 @@
         <v>29654.205</v>
       </c>
       <c r="G85" t="n">
+        <v>53.36000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>53.80133333333337</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,24 +3645,21 @@
         <v>13944.3801</v>
       </c>
       <c r="G86" t="n">
+        <v>53.36000000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>53.77816666666671</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3517,24 +3683,21 @@
         <v>2874.0627</v>
       </c>
       <c r="G87" t="n">
+        <v>53.36066666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>53.71350000000005</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,24 +3721,21 @@
         <v>2874.0628</v>
       </c>
       <c r="G88" t="n">
+        <v>53.36133333333335</v>
+      </c>
+      <c r="H88" t="n">
         <v>53.70183333333339</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,24 +3759,21 @@
         <v>7157.711441865672</v>
       </c>
       <c r="G89" t="n">
+        <v>53.32466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>53.66933333333339</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,24 +3797,21 @@
         <v>5291.637</v>
       </c>
       <c r="G90" t="n">
+        <v>53.32400000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>53.61766666666673</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3681,24 +3835,21 @@
         <v>11.5869</v>
       </c>
       <c r="G91" t="n">
+        <v>53.36866666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>53.5958333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,24 +3873,21 @@
         <v>71.1324</v>
       </c>
       <c r="G92" t="n">
+        <v>53.36933333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>53.57550000000005</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,24 +3911,21 @@
         <v>18436.8376</v>
       </c>
       <c r="G93" t="n">
+        <v>53.37066666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>53.5273333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,24 +3949,21 @@
         <v>3571.6945</v>
       </c>
       <c r="G94" t="n">
+        <v>53.37533333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>53.53066666666673</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,24 +3987,21 @@
         <v>45165.9437</v>
       </c>
       <c r="G95" t="n">
+        <v>53.38000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>53.53266666666672</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,24 +4025,21 @@
         <v>4627.3867</v>
       </c>
       <c r="G96" t="n">
+        <v>53.43266666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>53.53250000000005</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3927,24 +4063,21 @@
         <v>2489.6368</v>
       </c>
       <c r="G97" t="n">
+        <v>53.49000000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>53.50416666666672</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,24 +4101,21 @@
         <v>3517</v>
       </c>
       <c r="G98" t="n">
+        <v>53.56533333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>53.50866666666672</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,24 +4139,21 @@
         <v>43851.7758</v>
       </c>
       <c r="G99" t="n">
+        <v>53.64866666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>53.51550000000005</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,24 +4177,21 @@
         <v>847.5</v>
       </c>
       <c r="G100" t="n">
+        <v>53.74066666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>53.52183333333338</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,24 +4215,21 @@
         <v>3696.096</v>
       </c>
       <c r="G101" t="n">
+        <v>53.83866666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>53.52333333333339</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,24 +4253,21 @@
         <v>7300.7868</v>
       </c>
       <c r="G102" t="n">
+        <v>53.93666666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>53.52300000000005</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,24 +4291,21 @@
         <v>0.1082</v>
       </c>
       <c r="G103" t="n">
+        <v>54.03133333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>53.52850000000005</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,24 +4329,21 @@
         <v>7345.5221</v>
       </c>
       <c r="G104" t="n">
+        <v>54.12400000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>53.53566666666672</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,24 +4367,21 @@
         <v>4998.5687</v>
       </c>
       <c r="G105" t="n">
+        <v>54.21133333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>53.55500000000006</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,24 +4405,21 @@
         <v>183.2172</v>
       </c>
       <c r="G106" t="n">
+        <v>54.26400000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>53.56900000000006</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,24 +4443,21 @@
         <v>5421.819</v>
       </c>
       <c r="G107" t="n">
+        <v>54.31666666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>53.59033333333339</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,24 +4481,21 @@
         <v>18.7874</v>
       </c>
       <c r="G108" t="n">
+        <v>54.39000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>53.61700000000005</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,24 +4519,21 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
+        <v>54.46000000000002</v>
+      </c>
+      <c r="H109" t="n">
         <v>53.64583333333339</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,24 +4557,21 @@
         <v>5481.6873</v>
       </c>
       <c r="G110" t="n">
+        <v>54.53000000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>53.67250000000005</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4501,24 +4595,21 @@
         <v>21294.0664</v>
       </c>
       <c r="G111" t="n">
+        <v>54.59000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>53.70166666666672</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,24 +4633,25 @@
         <v>8859.830599999999</v>
       </c>
       <c r="G112" t="n">
+        <v>54.59666666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>53.72600000000005</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L112" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,24 +4675,29 @@
         <v>9628.873</v>
       </c>
       <c r="G113" t="n">
+        <v>54.58133333333335</v>
+      </c>
+      <c r="H113" t="n">
         <v>53.72433333333338</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,24 +4721,29 @@
         <v>4901.703</v>
       </c>
       <c r="G114" t="n">
+        <v>54.57800000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>53.72933333333338</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L114" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,24 +4767,29 @@
         <v>722.2679000000001</v>
       </c>
       <c r="G115" t="n">
+        <v>54.57800000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>53.73733333333338</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,24 +4813,29 @@
         <v>4750.2137</v>
       </c>
       <c r="G116" t="n">
+        <v>54.57800000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>53.76116666666671</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="L116" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,24 +4859,29 @@
         <v>2476.17</v>
       </c>
       <c r="G117" t="n">
+        <v>54.57266666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>53.78366666666671</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="L117" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,24 +4905,29 @@
         <v>1261.4834</v>
       </c>
       <c r="G118" t="n">
+        <v>54.55733333333335</v>
+      </c>
+      <c r="H118" t="n">
         <v>53.78550000000004</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="L118" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4829,24 +4951,29 @@
         <v>4112.7368</v>
       </c>
       <c r="G119" t="n">
+        <v>54.54200000000002</v>
+      </c>
+      <c r="H119" t="n">
         <v>53.80566666666671</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,24 +4997,29 @@
         <v>5461.392005939151</v>
       </c>
       <c r="G120" t="n">
+        <v>54.54133333333336</v>
+      </c>
+      <c r="H120" t="n">
         <v>53.83700000000003</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="L120" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,24 +5043,29 @@
         <v>5366.64619353252</v>
       </c>
       <c r="G121" t="n">
+        <v>54.56200000000002</v>
+      </c>
+      <c r="H121" t="n">
         <v>53.86683333333337</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="L121" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,24 +5089,29 @@
         <v>63.89141920204045</v>
       </c>
       <c r="G122" t="n">
+        <v>54.58266666666668</v>
+      </c>
+      <c r="H122" t="n">
         <v>53.88683333333336</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="L122" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4993,24 +5135,27 @@
         <v>8049.0145</v>
       </c>
       <c r="G123" t="n">
+        <v>54.58200000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>53.90683333333336</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,24 +5179,27 @@
         <v>7807.977581326289</v>
       </c>
       <c r="G124" t="n">
+        <v>54.58133333333335</v>
+      </c>
+      <c r="H124" t="n">
         <v>53.92400000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5075,24 +5223,27 @@
         <v>6102.3877</v>
       </c>
       <c r="G125" t="n">
+        <v>54.58866666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>53.95700000000002</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,24 +5267,27 @@
         <v>5408.289</v>
       </c>
       <c r="G126" t="n">
+        <v>54.58800000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>53.98850000000002</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,24 +5311,27 @@
         <v>2826.9451</v>
       </c>
       <c r="G127" t="n">
+        <v>54.68533333333335</v>
+      </c>
+      <c r="H127" t="n">
         <v>54.02950000000002</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,24 +5355,27 @@
         <v>1694.0987</v>
       </c>
       <c r="G128" t="n">
+        <v>54.77866666666669</v>
+      </c>
+      <c r="H128" t="n">
         <v>54.06966666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,24 +5399,27 @@
         <v>5079.7345</v>
       </c>
       <c r="G129" t="n">
+        <v>54.86533333333336</v>
+      </c>
+      <c r="H129" t="n">
         <v>54.11300000000002</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,24 +5443,27 @@
         <v>79.7146</v>
       </c>
       <c r="G130" t="n">
+        <v>54.96666666666669</v>
+      </c>
+      <c r="H130" t="n">
         <v>54.16133333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,24 +5487,27 @@
         <v>106.2254</v>
       </c>
       <c r="G131" t="n">
+        <v>55.06800000000002</v>
+      </c>
+      <c r="H131" t="n">
         <v>54.21116666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,24 +5531,27 @@
         <v>735.7613</v>
       </c>
       <c r="G132" t="n">
+        <v>55.17466666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>54.26116666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,24 +5575,27 @@
         <v>9944.045607596492</v>
       </c>
       <c r="G133" t="n">
+        <v>55.36133333333336</v>
+      </c>
+      <c r="H133" t="n">
         <v>54.32783333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,24 +5619,27 @@
         <v>3069.062092403509</v>
       </c>
       <c r="G134" t="n">
+        <v>55.54733333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>54.38450000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,24 +5663,27 @@
         <v>15238.46532538909</v>
       </c>
       <c r="G135" t="n">
+        <v>55.68733333333335</v>
+      </c>
+      <c r="H135" t="n">
         <v>54.44100000000002</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,24 +5707,27 @@
         <v>2461.611</v>
       </c>
       <c r="G136" t="n">
+        <v>55.76133333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>54.48900000000002</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5567,24 +5751,27 @@
         <v>1665.8853</v>
       </c>
       <c r="G137" t="n">
+        <v>55.76266666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>54.50783333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,24 +5795,27 @@
         <v>2795.9607</v>
       </c>
       <c r="G138" t="n">
+        <v>55.76400000000002</v>
+      </c>
+      <c r="H138" t="n">
         <v>54.52666666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,24 +5839,27 @@
         <v>69599.7249</v>
       </c>
       <c r="G139" t="n">
+        <v>55.76533333333335</v>
+      </c>
+      <c r="H139" t="n">
         <v>54.5455</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,24 +5883,29 @@
         <v>8096.1895</v>
       </c>
       <c r="G140" t="n">
+        <v>55.75866666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>54.56433333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="L140" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5731,24 +5929,29 @@
         <v>10662.78055711164</v>
       </c>
       <c r="G141" t="n">
+        <v>55.76000000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>54.59266666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="L141" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,24 +5975,29 @@
         <v>26615.67444288836</v>
       </c>
       <c r="G142" t="n">
+        <v>55.71666666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>54.62216666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="L142" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,24 +6021,29 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
+        <v>55.86733333333335</v>
+      </c>
+      <c r="H143" t="n">
         <v>54.69816666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="L143" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,24 +6067,27 @@
         <v>7693.2316</v>
       </c>
       <c r="G144" t="n">
+        <v>56.00533333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>54.77433333333332</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5895,24 +6111,27 @@
         <v>473.7822</v>
       </c>
       <c r="G145" t="n">
+        <v>56.12333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>54.85216666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,24 +6155,27 @@
         <v>6250.8201</v>
       </c>
       <c r="G146" t="n">
+        <v>56.09733333333335</v>
+      </c>
+      <c r="H146" t="n">
         <v>54.89549999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,24 +6199,27 @@
         <v>1511</v>
       </c>
       <c r="G147" t="n">
+        <v>56.19133333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>54.96883333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6018,24 +6243,27 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
+        <v>56.21266666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>55.04066666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6059,24 +6287,27 @@
         <v>10016.3904</v>
       </c>
       <c r="G149" t="n">
+        <v>56.06333333333335</v>
+      </c>
+      <c r="H149" t="n">
         <v>55.06916666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,24 +6331,27 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
+        <v>56.05133333333335</v>
+      </c>
+      <c r="H150" t="n">
         <v>55.12283333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6141,24 +6375,27 @@
         <v>9</v>
       </c>
       <c r="G151" t="n">
+        <v>56.09800000000002</v>
+      </c>
+      <c r="H151" t="n">
         <v>55.17133333333332</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6182,24 +6419,27 @@
         <v>45</v>
       </c>
       <c r="G152" t="n">
+        <v>56.10600000000002</v>
+      </c>
+      <c r="H152" t="n">
         <v>55.19199999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,24 +6463,27 @@
         <v>4196.8246</v>
       </c>
       <c r="G153" t="n">
+        <v>56.11200000000002</v>
+      </c>
+      <c r="H153" t="n">
         <v>55.21199999999998</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,24 +6507,27 @@
         <v>5899.638</v>
       </c>
       <c r="G154" t="n">
+        <v>56.17733333333335</v>
+      </c>
+      <c r="H154" t="n">
         <v>55.24599999999998</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6305,24 +6551,27 @@
         <v>12248.8493</v>
       </c>
       <c r="G155" t="n">
+        <v>56.24266666666669</v>
+      </c>
+      <c r="H155" t="n">
         <v>55.27999999999998</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,24 +6595,27 @@
         <v>3704.4832</v>
       </c>
       <c r="G156" t="n">
+        <v>56.30800000000002</v>
+      </c>
+      <c r="H156" t="n">
         <v>55.31149999999998</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6387,24 +6639,27 @@
         <v>5115.1118</v>
       </c>
       <c r="G157" t="n">
+        <v>56.31400000000003</v>
+      </c>
+      <c r="H157" t="n">
         <v>55.32816666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6428,24 +6683,27 @@
         <v>3572.573199321308</v>
       </c>
       <c r="G158" t="n">
+        <v>56.18933333333336</v>
+      </c>
+      <c r="H158" t="n">
         <v>55.35416666666664</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,24 +6727,27 @@
         <v>11</v>
       </c>
       <c r="G159" t="n">
+        <v>55.99866666666669</v>
+      </c>
+      <c r="H159" t="n">
         <v>55.36183333333331</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,24 +6771,27 @@
         <v>333</v>
       </c>
       <c r="G160" t="n">
+        <v>55.80733333333335</v>
+      </c>
+      <c r="H160" t="n">
         <v>55.36883333333331</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6551,24 +6815,27 @@
         <v>20</v>
       </c>
       <c r="G161" t="n">
+        <v>55.76066666666669</v>
+      </c>
+      <c r="H161" t="n">
         <v>55.37599999999998</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6592,24 +6859,27 @@
         <v>5851.8712</v>
       </c>
       <c r="G162" t="n">
+        <v>55.58466666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>55.38083333333331</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6633,24 +6903,27 @@
         <v>9111.732599999999</v>
       </c>
       <c r="G163" t="n">
+        <v>55.41533333333335</v>
+      </c>
+      <c r="H163" t="n">
         <v>55.38666666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6674,24 +6947,27 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
+        <v>55.42533333333335</v>
+      </c>
+      <c r="H164" t="n">
         <v>55.39449999999998</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6715,24 +6991,27 @@
         <v>19013.3313</v>
       </c>
       <c r="G165" t="n">
+        <v>55.36800000000002</v>
+      </c>
+      <c r="H165" t="n">
         <v>55.41199999999997</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6756,24 +7035,27 @@
         <v>16027.0068</v>
       </c>
       <c r="G166" t="n">
+        <v>55.24866666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>55.41749999999998</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6797,24 +7079,27 @@
         <v>3821.6948</v>
       </c>
       <c r="G167" t="n">
+        <v>55.23133333333335</v>
+      </c>
+      <c r="H167" t="n">
         <v>55.42066666666664</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,24 +7123,27 @@
         <v>22</v>
       </c>
       <c r="G168" t="n">
+        <v>55.21666666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>55.41866666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6879,24 +7167,29 @@
         <v>11</v>
       </c>
       <c r="G169" t="n">
+        <v>55.15066666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>55.41866666666665</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="L169" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6920,24 +7213,29 @@
         <v>12208.7506</v>
       </c>
       <c r="G170" t="n">
+        <v>55.078</v>
+      </c>
+      <c r="H170" t="n">
         <v>55.41699999999998</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L170" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,24 +7259,29 @@
         <v>8099.3323</v>
       </c>
       <c r="G171" t="n">
+        <v>54.98533333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>55.41033333333331</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L171" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7002,24 +7305,29 @@
         <v>5566.1237</v>
       </c>
       <c r="G172" t="n">
+        <v>54.93533333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>55.41283333333331</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L172" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7043,24 +7351,29 @@
         <v>19434.0542</v>
       </c>
       <c r="G173" t="n">
+        <v>54.81666666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>55.41299999999998</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="L173" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7084,24 +7397,29 @@
         <v>26349.2313</v>
       </c>
       <c r="G174" t="n">
+        <v>54.77266666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>55.41049999999998</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="L174" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7125,24 +7443,29 @@
         <v>13233.2534</v>
       </c>
       <c r="G175" t="n">
+        <v>54.75266666666668</v>
+      </c>
+      <c r="H175" t="n">
         <v>55.41249999999998</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="L175" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7166,24 +7489,29 @@
         <v>11</v>
       </c>
       <c r="G176" t="n">
+        <v>54.71200000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>55.40949999999998</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="L176" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7207,24 +7535,29 @@
         <v>676.878</v>
       </c>
       <c r="G177" t="n">
+        <v>54.75733333333335</v>
+      </c>
+      <c r="H177" t="n">
         <v>55.42699999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="L177" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7248,24 +7581,27 @@
         <v>10</v>
       </c>
       <c r="G178" t="n">
+        <v>54.76800000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>55.43933333333332</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,24 +7625,27 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
+        <v>54.77000000000002</v>
+      </c>
+      <c r="H179" t="n">
         <v>55.45149999999998</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7330,24 +7669,27 @@
         <v>6329.2443</v>
       </c>
       <c r="G180" t="n">
+        <v>54.66000000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>55.44166666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7371,24 +7713,27 @@
         <v>68521.1439</v>
       </c>
       <c r="G181" t="n">
+        <v>54.61933333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>55.43183333333332</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,24 +7757,27 @@
         <v>4175.7589</v>
       </c>
       <c r="G182" t="n">
+        <v>54.58800000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>55.422</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7453,24 +7801,27 @@
         <v>2823.0364</v>
       </c>
       <c r="G183" t="n">
+        <v>54.55600000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>55.41216666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7494,24 +7845,27 @@
         <v>1186.1625</v>
       </c>
       <c r="G184" t="n">
+        <v>54.51133333333335</v>
+      </c>
+      <c r="H184" t="n">
         <v>55.40116666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7535,24 +7889,27 @@
         <v>1271.8701</v>
       </c>
       <c r="G185" t="n">
+        <v>54.47800000000002</v>
+      </c>
+      <c r="H185" t="n">
         <v>55.38933333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7576,24 +7933,27 @@
         <v>6388.1325</v>
       </c>
       <c r="G186" t="n">
+        <v>54.50466666666668</v>
+      </c>
+      <c r="H186" t="n">
         <v>55.38950000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7617,24 +7977,27 @@
         <v>11</v>
       </c>
       <c r="G187" t="n">
+        <v>54.51533333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>55.37033333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,24 +8021,27 @@
         <v>1738.4958</v>
       </c>
       <c r="G188" t="n">
+        <v>54.52800000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>55.35033333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7699,24 +8065,27 @@
         <v>21935.3049</v>
       </c>
       <c r="G189" t="n">
+        <v>54.53133333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>55.32700000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7740,24 +8109,27 @@
         <v>10893.4089</v>
       </c>
       <c r="G190" t="n">
+        <v>54.51533333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>55.29966666666668</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,24 +8153,27 @@
         <v>132</v>
       </c>
       <c r="G191" t="n">
+        <v>54.51933333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>55.27233333333335</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7822,24 +8197,27 @@
         <v>55</v>
       </c>
       <c r="G192" t="n">
+        <v>54.44666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>55.24500000000002</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7863,24 +8241,27 @@
         <v>44</v>
       </c>
       <c r="G193" t="n">
+        <v>54.40800000000001</v>
+      </c>
+      <c r="H193" t="n">
         <v>55.20100000000002</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,24 +8285,27 @@
         <v>369.2446</v>
       </c>
       <c r="G194" t="n">
+        <v>54.37000000000001</v>
+      </c>
+      <c r="H194" t="n">
         <v>55.15716666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,24 +8329,27 @@
         <v>10454.6048</v>
       </c>
       <c r="G195" t="n">
+        <v>54.37400000000002</v>
+      </c>
+      <c r="H195" t="n">
         <v>55.11333333333336</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7986,24 +8373,27 @@
         <v>55</v>
       </c>
       <c r="G196" t="n">
+        <v>54.37866666666669</v>
+      </c>
+      <c r="H196" t="n">
         <v>55.08616666666669</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8027,24 +8417,27 @@
         <v>10101.9724</v>
       </c>
       <c r="G197" t="n">
+        <v>54.37933333333335</v>
+      </c>
+      <c r="H197" t="n">
         <v>55.07616666666669</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8068,24 +8461,27 @@
         <v>43043.2042</v>
       </c>
       <c r="G198" t="n">
+        <v>54.38000000000002</v>
+      </c>
+      <c r="H198" t="n">
         <v>55.0661666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8109,24 +8505,27 @@
         <v>72268.66899999999</v>
       </c>
       <c r="G199" t="n">
+        <v>54.38533333333335</v>
+      </c>
+      <c r="H199" t="n">
         <v>55.0561666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8150,24 +8549,27 @@
         <v>107705.4567</v>
       </c>
       <c r="G200" t="n">
+        <v>54.32933333333335</v>
+      </c>
+      <c r="H200" t="n">
         <v>55.03200000000003</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8191,24 +8593,27 @@
         <v>70945.4065</v>
       </c>
       <c r="G201" t="n">
+        <v>54.23266666666669</v>
+      </c>
+      <c r="H201" t="n">
         <v>55.0076666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8232,24 +8637,27 @@
         <v>125.1277</v>
       </c>
       <c r="G202" t="n">
+        <v>54.22066666666669</v>
+      </c>
+      <c r="H202" t="n">
         <v>54.99633333333337</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,24 +8681,27 @@
         <v>24.5897</v>
       </c>
       <c r="G203" t="n">
+        <v>54.22333333333336</v>
+      </c>
+      <c r="H203" t="n">
         <v>54.93933333333337</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8314,24 +8725,27 @@
         <v>5829.7804</v>
       </c>
       <c r="G204" t="n">
+        <v>54.2226666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>54.88133333333337</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8355,24 +8769,27 @@
         <v>2974.0218</v>
       </c>
       <c r="G205" t="n">
+        <v>54.16733333333336</v>
+      </c>
+      <c r="H205" t="n">
         <v>54.81066666666671</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8396,24 +8813,27 @@
         <v>1157.7893</v>
       </c>
       <c r="G206" t="n">
+        <v>54.1166666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>54.7771666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8437,24 +8857,27 @@
         <v>3020.811</v>
       </c>
       <c r="G207" t="n">
+        <v>54.09533333333336</v>
+      </c>
+      <c r="H207" t="n">
         <v>54.72100000000003</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8478,24 +8901,27 @@
         <v>581.8142</v>
       </c>
       <c r="G208" t="n">
+        <v>54.08266666666669</v>
+      </c>
+      <c r="H208" t="n">
         <v>54.66850000000003</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8519,24 +8945,27 @@
         <v>999</v>
       </c>
       <c r="G209" t="n">
+        <v>54.06066666666668</v>
+      </c>
+      <c r="H209" t="n">
         <v>54.65650000000003</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8560,24 +8989,27 @@
         <v>6466.7178</v>
       </c>
       <c r="G210" t="n">
+        <v>54.04000000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>54.61050000000003</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8601,24 +9033,27 @@
         <v>12817.9914</v>
       </c>
       <c r="G211" t="n">
+        <v>54.01800000000001</v>
+      </c>
+      <c r="H211" t="n">
         <v>54.5661666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8642,24 +9077,27 @@
         <v>58572.8939</v>
       </c>
       <c r="G212" t="n">
+        <v>53.96066666666669</v>
+      </c>
+      <c r="H212" t="n">
         <v>54.53983333333336</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8683,24 +9121,27 @@
         <v>74.42019999999999</v>
       </c>
       <c r="G213" t="n">
+        <v>53.96933333333336</v>
+      </c>
+      <c r="H213" t="n">
         <v>54.53050000000003</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,24 +9165,27 @@
         <v>8927.361999999999</v>
       </c>
       <c r="G214" t="n">
+        <v>53.9126666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>54.49000000000003</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8765,24 +9209,27 @@
         <v>19324.3318</v>
       </c>
       <c r="G215" t="n">
+        <v>53.9126666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>54.44950000000004</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8806,24 +9253,27 @@
         <v>30074.411</v>
       </c>
       <c r="G216" t="n">
+        <v>53.9126666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>54.40883333333337</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8847,24 +9297,27 @@
         <v>33761.4277</v>
       </c>
       <c r="G217" t="n">
+        <v>53.83733333333337</v>
+      </c>
+      <c r="H217" t="n">
         <v>54.3771666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,24 +9341,27 @@
         <v>15761.4533</v>
       </c>
       <c r="G218" t="n">
+        <v>53.74933333333336</v>
+      </c>
+      <c r="H218" t="n">
         <v>54.32933333333337</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8929,24 +9385,27 @@
         <v>11</v>
       </c>
       <c r="G219" t="n">
+        <v>53.74333333333337</v>
+      </c>
+      <c r="H219" t="n">
         <v>54.31750000000003</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8970,24 +9429,27 @@
         <v>9918.958199999999</v>
       </c>
       <c r="G220" t="n">
+        <v>53.71533333333337</v>
+      </c>
+      <c r="H220" t="n">
         <v>54.2876666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9011,24 +9473,27 @@
         <v>5520.2212</v>
       </c>
       <c r="G221" t="n">
+        <v>53.68333333333337</v>
+      </c>
+      <c r="H221" t="n">
         <v>54.25783333333337</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9052,24 +9517,27 @@
         <v>4467.447</v>
       </c>
       <c r="G222" t="n">
+        <v>53.66666666666671</v>
+      </c>
+      <c r="H222" t="n">
         <v>54.24150000000004</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,24 +9561,27 @@
         <v>55869.8993</v>
       </c>
       <c r="G223" t="n">
+        <v>53.65200000000004</v>
+      </c>
+      <c r="H223" t="n">
         <v>54.22766666666669</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9134,24 +9605,27 @@
         <v>15888.9841</v>
       </c>
       <c r="G224" t="n">
+        <v>53.64600000000005</v>
+      </c>
+      <c r="H224" t="n">
         <v>54.21166666666669</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9175,24 +9649,27 @@
         <v>3439.4178</v>
       </c>
       <c r="G225" t="n">
+        <v>53.65533333333339</v>
+      </c>
+      <c r="H225" t="n">
         <v>54.18233333333337</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,24 +9693,27 @@
         <v>33004.60336065695</v>
       </c>
       <c r="G226" t="n">
+        <v>53.66466666666672</v>
+      </c>
+      <c r="H226" t="n">
         <v>54.1701666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9257,24 +9737,27 @@
         <v>23948.34252966619</v>
       </c>
       <c r="G227" t="n">
+        <v>53.82600000000005</v>
+      </c>
+      <c r="H227" t="n">
         <v>54.18850000000003</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9298,24 +9781,27 @@
         <v>13165.0278</v>
       </c>
       <c r="G228" t="n">
+        <v>54.05400000000006</v>
+      </c>
+      <c r="H228" t="n">
         <v>54.23983333333336</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9339,24 +9825,27 @@
         <v>1294.0314</v>
       </c>
       <c r="G229" t="n">
+        <v>54.34266666666672</v>
+      </c>
+      <c r="H229" t="n">
         <v>54.28800000000003</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9380,24 +9869,27 @@
         <v>6449.865743126134</v>
       </c>
       <c r="G230" t="n">
+        <v>54.63666666666672</v>
+      </c>
+      <c r="H230" t="n">
         <v>54.33916666666669</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9421,24 +9913,27 @@
         <v>107945.6360665507</v>
       </c>
       <c r="G231" t="n">
+        <v>55.13666666666672</v>
+      </c>
+      <c r="H231" t="n">
         <v>54.44666666666669</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9462,24 +9957,27 @@
         <v>131999.1939068089</v>
       </c>
       <c r="G232" t="n">
+        <v>55.65666666666672</v>
+      </c>
+      <c r="H232" t="n">
         <v>54.55750000000002</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9503,25 +10001,28 @@
         <v>42047.453</v>
       </c>
       <c r="G233" t="n">
+        <v>56.11533333333338</v>
+      </c>
+      <c r="H233" t="n">
         <v>54.65400000000002</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1.124943502824859</v>
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -9544,18 +10045,27 @@
         <v>56711.7592557579</v>
       </c>
       <c r="G234" t="n">
+        <v>56.34933333333338</v>
+      </c>
+      <c r="H234" t="n">
         <v>54.71166666666669</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9579,18 +10089,27 @@
         <v>3279.8254</v>
       </c>
       <c r="G235" t="n">
+        <v>56.54400000000005</v>
+      </c>
+      <c r="H235" t="n">
         <v>54.73550000000002</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9614,18 +10133,27 @@
         <v>2487.905305944473</v>
       </c>
       <c r="G236" t="n">
+        <v>56.91666666666671</v>
+      </c>
+      <c r="H236" t="n">
         <v>54.80900000000002</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9649,18 +10177,449 @@
         <v>7125.8162</v>
       </c>
       <c r="G237" t="n">
+        <v>57.38400000000004</v>
+      </c>
+      <c r="H237" t="n">
         <v>54.8981666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>58</v>
+      </c>
+      <c r="D238" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>58</v>
+      </c>
+      <c r="F238" t="n">
+        <v>15643.9517</v>
+      </c>
+      <c r="G238" t="n">
+        <v>57.65400000000004</v>
+      </c>
+      <c r="H238" t="n">
+        <v>54.94916666666669</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C239" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="D239" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="E239" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2424.8975</v>
+      </c>
+      <c r="G239" t="n">
+        <v>57.90466666666671</v>
+      </c>
+      <c r="H239" t="n">
+        <v>54.99533333333336</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="C240" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="D240" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="E240" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="F240" t="n">
+        <v>84517.14109999999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>58.00600000000004</v>
+      </c>
+      <c r="H240" t="n">
+        <v>55.01883333333335</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="C241" t="n">
+        <v>57</v>
+      </c>
+      <c r="D241" t="n">
+        <v>57</v>
+      </c>
+      <c r="E241" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="F241" t="n">
+        <v>64052.864</v>
+      </c>
+      <c r="G241" t="n">
+        <v>58.19400000000005</v>
+      </c>
+      <c r="H241" t="n">
+        <v>55.06383333333336</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C242" t="n">
+        <v>57</v>
+      </c>
+      <c r="D242" t="n">
+        <v>57</v>
+      </c>
+      <c r="E242" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="F242" t="n">
+        <v>40090.36587719298</v>
+      </c>
+      <c r="G242" t="n">
+        <v>58.26933333333338</v>
+      </c>
+      <c r="H242" t="n">
+        <v>55.10883333333335</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="C243" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="D243" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="E243" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="F243" t="n">
+        <v>18882.8074</v>
+      </c>
+      <c r="G243" t="n">
+        <v>58.21333333333337</v>
+      </c>
+      <c r="H243" t="n">
+        <v>55.15416666666668</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="C244" t="n">
+        <v>58.49</v>
+      </c>
+      <c r="D244" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="E244" t="n">
+        <v>58.49</v>
+      </c>
+      <c r="F244" t="n">
+        <v>212.4744</v>
+      </c>
+      <c r="G244" t="n">
+        <v>58.26000000000004</v>
+      </c>
+      <c r="H244" t="n">
+        <v>55.22516666666668</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1.060391621129326</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="C245" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D245" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="E245" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3070.6658</v>
+      </c>
+      <c r="G245" t="n">
+        <v>58.22200000000004</v>
+      </c>
+      <c r="H245" t="n">
+        <v>55.27516666666668</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="C246" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="D246" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="E246" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="F246" t="n">
+        <v>35005.9842</v>
+      </c>
+      <c r="G246" t="n">
+        <v>57.96600000000004</v>
+      </c>
+      <c r="H246" t="n">
+        <v>55.31200000000001</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="C247" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="D247" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="E247" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="F247" t="n">
+        <v>16656.0601</v>
+      </c>
+      <c r="G247" t="n">
+        <v>57.71333333333337</v>
+      </c>
+      <c r="H247" t="n">
+        <v>55.35700000000001</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest WOM.xlsx
+++ b/BackTest/2020-01-11 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-147043.0480365993</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-147043.0480365993</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-162344.7365365993</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-176733.3297365993</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-176733.3297365993</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-176733.3297365993</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-176733.3297365993</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-176733.3297365993</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-176910.5227365993</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-176919.5227365993</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-177415.5357365993</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-171387.4827365993</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-171387.4827365993</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-171387.4827365993</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-359435.0830365993</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-353448.0453365993</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-347792.2523365993</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-384742.2615365993</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -5236,10 +5236,14 @@
         <v>-1017674.032856127</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="J147" t="n">
+        <v>53.01</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5269,15 +5273,17 @@
         <v>-1012382.395856127</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>53.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+        <v>53.01</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,11 +5312,13 @@
         <v>-1012370.808956127</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>53.59</v>
+      </c>
       <c r="J149" t="n">
-        <v>53.05</v>
+        <v>53.01</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5345,19 +5353,15 @@
         <v>-1012370.808956127</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>53.79</v>
       </c>
       <c r="J150" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>53.79</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +5393,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +5432,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +5471,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +5510,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +5549,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5585,19 @@
         <v>-982217.8901561266</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>54</v>
+      </c>
+      <c r="J156" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5584,11 +5626,19 @@
         <v>-938366.1143561266</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>54.43</v>
+      </c>
+      <c r="J157" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5620,8 +5670,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5686,8 +5748,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5752,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +5865,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +5943,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6021,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +6057,19 @@
         <v>-925339.0615561267</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J168" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +6098,19 @@
         <v>-925339.0615561267</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J169" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +6139,19 @@
         <v>-934198.8921561267</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J170" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6046,15 +6180,19 @@
         <v>-924570.0191561267</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>54.1</v>
       </c>
       <c r="J171" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+        <v>53.79</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6083,17 +6221,17 @@
         <v>-919668.3161561267</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>54.2</v>
       </c>
       <c r="J172" t="n">
-        <v>54.1</v>
+        <v>53.79</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -6124,17 +6262,17 @@
         <v>-918946.0482561267</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>54.4</v>
       </c>
       <c r="J173" t="n">
-        <v>54.1</v>
+        <v>53.79</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6165,15 +6303,19 @@
         <v>-918946.0482561267</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>54.48</v>
       </c>
       <c r="J174" t="n">
-        <v>54.48</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+        <v>53.79</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6202,17 +6344,17 @@
         <v>-921422.2182561267</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>54.48</v>
       </c>
       <c r="J175" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6243,13 +6385,13 @@
         <v>-922683.7016561268</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>54.4</v>
       </c>
       <c r="J176" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6284,13 +6426,13 @@
         <v>-918570.9648561268</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>54.2</v>
       </c>
       <c r="J177" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6325,13 +6467,13 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>54.21</v>
       </c>
       <c r="J178" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6366,13 +6508,13 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>54.89</v>
       </c>
       <c r="J179" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6407,13 +6549,13 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>54.89</v>
       </c>
       <c r="J180" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6448,11 +6590,13 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>54.89</v>
+      </c>
       <c r="J181" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6487,13 +6631,13 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>54.89</v>
       </c>
       <c r="J182" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6528,13 +6672,13 @@
         <v>-907007.1851501877</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>54.89</v>
       </c>
       <c r="J183" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6569,11 +6713,13 @@
         <v>-912415.4741501877</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>55.01</v>
+      </c>
       <c r="J184" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6608,11 +6754,13 @@
         <v>-909588.5290501877</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>54.89</v>
+      </c>
       <c r="J185" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6647,11 +6795,13 @@
         <v>-907894.4303501877</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>55.56</v>
+      </c>
       <c r="J186" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6686,19 +6836,21 @@
         <v>-902814.6958501877</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>55.6</v>
+      </c>
       <c r="J187" t="n">
-        <v>54.48</v>
+        <v>53.79</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.017393538913363</v>
+        <v>1</v>
       </c>
       <c r="M187" t="inlineStr"/>
     </row>
@@ -6725,11 +6877,19 @@
         <v>-902734.9812501877</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="J188" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6758,11 +6918,19 @@
         <v>-902734.9812501877</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>56</v>
+      </c>
+      <c r="J189" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6959,19 @@
         <v>-902734.9812501877</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>56</v>
+      </c>
+      <c r="J190" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6824,11 +7000,19 @@
         <v>-892790.9356425912</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>56</v>
+      </c>
+      <c r="J191" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6857,11 +7041,19 @@
         <v>-892790.9356425912</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>57</v>
+      </c>
+      <c r="J192" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6890,11 +7082,19 @@
         <v>-908029.4009679803</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>57</v>
+      </c>
+      <c r="J193" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6923,11 +7123,19 @@
         <v>-910491.0119679803</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="J194" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6956,11 +7164,19 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>56</v>
+      </c>
+      <c r="J195" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6989,15 +7205,19 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>54.91</v>
       </c>
       <c r="J196" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+        <v>53.79</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7026,17 +7246,17 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>54.91</v>
       </c>
       <c r="J197" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -7067,17 +7287,17 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>54.91</v>
       </c>
       <c r="J198" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7108,17 +7328,17 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>54.91</v>
       </c>
       <c r="J199" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -7149,13 +7369,13 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>54.91</v>
       </c>
       <c r="J200" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7190,13 +7410,13 @@
         <v>-912146.8972679803</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>54.91</v>
       </c>
       <c r="J201" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7231,13 +7451,13 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>57.86</v>
       </c>
       <c r="J202" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7272,11 +7492,11 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7315,7 +7535,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7350,11 +7570,13 @@
         <v>-924579.9489679803</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>55.61</v>
+      </c>
       <c r="J205" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7389,11 +7611,13 @@
         <v>-924589.9489679803</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>57.41</v>
+      </c>
       <c r="J206" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7428,11 +7652,13 @@
         <v>-934606.3393679804</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>57.32</v>
+      </c>
       <c r="J207" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7467,11 +7693,13 @@
         <v>-934596.3393679804</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>54.76</v>
+      </c>
       <c r="J208" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7506,11 +7734,13 @@
         <v>-934605.3393679804</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>56.81</v>
+      </c>
       <c r="J209" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7545,19 +7775,21 @@
         <v>-934650.3393679804</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>56.7</v>
+      </c>
       <c r="J210" t="n">
-        <v>54.91</v>
+        <v>53.79</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>0.9971853942815517</v>
+        <v>1</v>
       </c>
       <c r="M210" t="inlineStr"/>
     </row>
@@ -7584,11 +7816,19 @@
         <v>-938847.1639679804</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="J211" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7617,11 +7857,19 @@
         <v>-932947.5259679804</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>55</v>
+      </c>
+      <c r="J212" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7898,19 @@
         <v>-932947.5259679804</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="J213" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7939,19 @@
         <v>-932947.5259679804</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="J214" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7980,19 @@
         <v>-938062.6377679803</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="J215" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7749,11 +8021,19 @@
         <v>-934490.0645686591</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>55</v>
+      </c>
+      <c r="J216" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +8062,19 @@
         <v>-934501.0645686591</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="J217" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7815,11 +8103,19 @@
         <v>-934834.0645686591</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J218" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7848,11 +8144,19 @@
         <v>-934814.0645686591</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J219" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7881,11 +8185,19 @@
         <v>-940665.9357686591</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J220" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7914,11 +8226,19 @@
         <v>-931554.2031686591</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>54.77</v>
+      </c>
+      <c r="J221" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +8267,19 @@
         <v>-931543.2031686591</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="J222" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7980,11 +8308,19 @@
         <v>-912529.8718686592</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J223" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8013,11 +8349,19 @@
         <v>-928556.8786686591</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="J224" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8046,11 +8390,19 @@
         <v>-932378.5734686592</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J225" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8079,11 +8431,19 @@
         <v>-932356.5734686592</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>54.77</v>
+      </c>
+      <c r="J226" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +8472,19 @@
         <v>-932345.5734686592</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="J227" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +8513,19 @@
         <v>-944554.3240686592</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J228" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +8554,19 @@
         <v>-952653.6563686592</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J229" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8211,11 +8595,19 @@
         <v>-958219.7800686592</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="J230" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8244,11 +8636,19 @@
         <v>-977653.8342686592</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="J231" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8277,11 +8677,19 @@
         <v>-951304.6029686593</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="J232" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8310,11 +8718,19 @@
         <v>-938071.3495686592</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="J233" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8346,8 +8762,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8379,8 +8801,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8412,8 +8840,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8445,8 +8879,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8478,8 +8918,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8511,8 +8957,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8544,8 +8996,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8577,8 +9035,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8610,8 +9074,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8643,8 +9113,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8676,8 +9152,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8709,8 +9191,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8742,8 +9230,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8775,8 +9269,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8808,8 +9308,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8841,8 +9347,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8874,8 +9386,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8907,8 +9425,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8940,8 +9464,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8973,8 +9503,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9006,8 +9542,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9039,8 +9581,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9072,8 +9620,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9105,8 +9659,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9138,8 +9698,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9171,8 +9737,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9204,8 +9776,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9237,8 +9815,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9270,8 +9854,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9303,8 +9893,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +9929,19 @@
         <v>-1156341.758868659</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="J264" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9970,19 @@
         <v>-1153320.947868659</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="J265" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +10011,19 @@
         <v>-1152739.133668659</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="J266" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9432,11 +10052,19 @@
         <v>-1153738.133668659</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="J267" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9465,11 +10093,19 @@
         <v>-1147271.41586866</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="J268" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +10134,19 @@
         <v>-1160089.407268659</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="J269" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +10175,19 @@
         <v>-1218662.301168659</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="J270" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9564,15 +10216,19 @@
         <v>-1218587.880968659</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>53.45</v>
       </c>
       <c r="J271" t="n">
-        <v>53.45</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+        <v>53.79</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9601,15 +10257,17 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>54.44</v>
+      </c>
       <c r="J272" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9640,17 +10298,17 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>53.46</v>
       </c>
       <c r="J273" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9681,17 +10339,17 @@
         <v>-1257589.653968659</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>53.46</v>
       </c>
       <c r="J274" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9722,13 +10380,13 @@
         <v>-1291351.08166866</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>53.45</v>
       </c>
       <c r="J275" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9763,13 +10421,13 @@
         <v>-1275589.62836866</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>53.1</v>
       </c>
       <c r="J276" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9804,13 +10462,13 @@
         <v>-1275578.62836866</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>53.12</v>
       </c>
       <c r="J277" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9845,11 +10503,13 @@
         <v>-1285497.58656866</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>54.2</v>
+      </c>
       <c r="J278" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9884,13 +10544,13 @@
         <v>-1279977.36536866</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>53.11</v>
       </c>
       <c r="J279" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9925,11 +10585,13 @@
         <v>-1275509.91836866</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>53.12</v>
+      </c>
       <c r="J280" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9964,13 +10626,13 @@
         <v>-1219640.01906866</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>53.79</v>
       </c>
       <c r="J281" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10005,13 +10667,13 @@
         <v>-1219640.01906866</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>53.95</v>
       </c>
       <c r="J282" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10046,13 +10708,13 @@
         <v>-1216200.60126866</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>53.95</v>
       </c>
       <c r="J283" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10087,13 +10749,13 @@
         <v>-1249205.204629317</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>54.19</v>
       </c>
       <c r="J284" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10128,11 +10790,13 @@
         <v>-1225256.862099651</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>54.18</v>
+      </c>
       <c r="J285" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10167,11 +10831,13 @@
         <v>-1212091.834299651</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>55.87</v>
+      </c>
       <c r="J286" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10210,7 +10876,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10249,7 +10915,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10288,7 +10954,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10327,7 +10993,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10362,23 +11028,21 @@
         <v>-1273037.010796783</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>53.45</v>
+        <v>53.79</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>1.117544434050515</v>
-      </c>
-      <c r="M291" t="n">
-        <v>1.195098039215686</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10403,11 +11067,17 @@
         <v>-1329748.770052541</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10436,11 +11106,19 @@
         <v>-1333028.595452541</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="J293" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10469,11 +11147,19 @@
         <v>-1330540.690146596</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>56.03</v>
+      </c>
+      <c r="J294" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +11188,19 @@
         <v>-1323414.873946596</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="J295" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10538,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10568,11 +11268,17 @@
         <v>-1341483.723146596</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10601,11 +11307,17 @@
         <v>-1426000.864246596</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10634,11 +11346,19 @@
         <v>-1361948.000246596</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="J299" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10667,11 +11387,19 @@
         <v>-1361948.000246596</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>57</v>
+      </c>
+      <c r="J300" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10700,11 +11428,19 @@
         <v>-1343065.192846596</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>57</v>
+      </c>
+      <c r="J301" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10733,11 +11469,19 @@
         <v>-1342852.718446596</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="J302" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10769,8 +11513,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10802,8 +11552,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10832,17 +11588,25 @@
         <v>-1380929.368446596</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="J305" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
       <c r="M305" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest WOM.xlsx
+++ b/BackTest/2020-01-11 BackTest WOM.xlsx
@@ -451,7 +451,7 @@
         <v>-147135.4713586752</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-146820.6441586752</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-147545.8169586752</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-147688.7564586753</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-147639.4062365993</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-160174.9973365992</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-147043.0480365993</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-445530.1927604232</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -6028,10 +6028,14 @@
         <v>-924570.0191561267</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>54.1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6061,11 +6065,19 @@
         <v>-919668.3161561267</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6106,19 @@
         <v>-918946.0482561267</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="J173" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6193,10 +6213,14 @@
         <v>-922683.7016561268</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="J176" t="n">
+        <v>54.4</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
@@ -6226,11 +6250,19 @@
         <v>-918570.9648561268</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6291,19 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="J178" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,10 +6332,14 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="J179" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
@@ -6328,8 +6372,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6411,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6754,7 +6810,7 @@
         <v>-908029.4009679803</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6843,7 @@
         <v>-910491.0119679803</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6876,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6886,10 +6942,14 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J197" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
@@ -6922,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7018,19 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J199" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7059,19 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J200" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7103,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7139,17 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7178,17 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7220,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7259,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7298,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7334,17 @@
         <v>-934606.3393679804</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7376,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7415,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7454,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7493,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7532,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7571,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7610,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7649,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7688,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7727,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7766,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7805,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7844,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7883,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7922,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7961,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8000,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8039,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8078,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8117,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8156,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8195,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8234,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8273,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8312,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8351,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8390,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8429,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8468,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8507,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8546,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8585,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8624,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8663,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8702,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8741,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8780,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8819,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8858,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8897,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8936,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8975,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9014,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9053,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9092,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9131,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9170,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9209,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9248,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9287,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9326,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9365,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9404,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,15 +9440,17 @@
         <v>-1148695.745968659</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>54.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>54.23</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+        <v>54.91</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9039,11 +9483,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>54.23</v>
+        <v>54.91</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9078,11 +9522,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>54.23</v>
+        <v>54.91</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9113,15 +9557,17 @@
         <v>-1156341.758868659</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>53.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+        <v>54.91</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9156,11 +9602,11 @@
         <v>53.6</v>
       </c>
       <c r="J265" t="n">
-        <v>53.53</v>
+        <v>54.91</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9191,17 +9637,15 @@
         <v>-1152739.133668659</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>54.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>53.53</v>
+        <v>54.91</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9235,8 +9679,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +9718,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9754,19 @@
         <v>-1160089.407268659</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="J269" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +9798,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +9834,19 @@
         <v>-1218587.880968659</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="J271" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +9875,19 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J272" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +9916,19 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>53.46</v>
+      </c>
+      <c r="J273" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9468,10 +9962,12 @@
       <c r="I274" t="n">
         <v>53.46</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9507,7 +10003,9 @@
       <c r="I275" t="n">
         <v>53.45</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,7 +10044,9 @@
       <c r="I276" t="n">
         <v>53.1</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,7 +10085,9 @@
       <c r="I277" t="n">
         <v>53.12</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,7 +10126,9 @@
       <c r="I278" t="n">
         <v>54.2</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,7 +10167,9 @@
       <c r="I279" t="n">
         <v>53.11</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,7 +10208,9 @@
       <c r="I280" t="n">
         <v>53.12</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9741,7 +10249,9 @@
       <c r="I281" t="n">
         <v>53.79</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,10 +10285,14 @@
         <v>-1219640.01906866</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>53.95</v>
+      </c>
+      <c r="J282" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,10 +10326,14 @@
         <v>-1216200.60126866</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>53.95</v>
+      </c>
+      <c r="J283" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,10 +10367,14 @@
         <v>-1249205.204629317</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="J284" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,10 +10408,14 @@
         <v>-1225256.862099651</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="J285" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,10 +10449,14 @@
         <v>-1212091.834299651</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>55.87</v>
+      </c>
+      <c r="J286" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9963,7 +10493,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10000,7 +10532,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10037,7 +10571,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10071,16 +10607,20 @@
         <v>-1230989.557796783</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>54.91</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L290" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
       <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
@@ -10106,11 +10646,17 @@
         <v>-1273037.010796783</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10139,11 +10685,17 @@
         <v>-1329748.770052541</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10172,11 +10724,17 @@
         <v>-1333028.595452541</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10205,11 +10763,17 @@
         <v>-1330540.690146596</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10238,11 +10802,17 @@
         <v>-1323414.873946596</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10271,11 +10841,17 @@
         <v>-1339058.825646596</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10304,11 +10880,17 @@
         <v>-1341483.723146596</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10337,11 +10919,17 @@
         <v>-1426000.864246596</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10373,8 +10961,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10406,8 +11000,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10439,8 +11039,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10472,8 +11078,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10505,8 +11117,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10538,8 +11156,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10571,8 +11195,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
